--- a/mastr/matched_units.xlsx
+++ b/mastr/matched_units.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dd.mm.yyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -26,7 +29,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,24 +52,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -432,59 +434,72 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8.4" customWidth="1" min="1" max="1"/>
+    <col width="110.4" customWidth="1" min="2" max="2"/>
+    <col width="68.39999999999999" customWidth="1" min="3" max="3"/>
+    <col width="25.2" customWidth="1" min="4" max="4"/>
+    <col width="13.2" customWidth="1" min="5" max="5"/>
+    <col width="63.59999999999999" customWidth="1" min="6" max="6"/>
+    <col width="20.4" customWidth="1" min="7" max="7"/>
+    <col width="103.2" customWidth="1" min="8" max="8"/>
+    <col width="15.6" customWidth="1" min="9" max="9"/>
+    <col width="13.2" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>operator</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>unit_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>start_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>age_years</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>mastr_number</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>mastr_url</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>latitude</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>longitude</t>
         </is>
@@ -504,10 +519,8 @@
           <t>Viessmann BHKW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.10.2018</t>
-        </is>
+      <c r="D2" s="1" t="n">
+        <v>43384</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -517,7 +530,7 @@
           <t>Kurt-Kleiner-Straße 1, 87719 Mindelheim</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>SEE912037755702</t>
         </is>
@@ -553,10 +566,8 @@
           <t>MNO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.10.2015</t>
-        </is>
+      <c r="D3" s="1" t="n">
+        <v>42307</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -566,7 +577,7 @@
           <t>Weitlstraße 66, 80935 München</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>SEE945091856061</t>
         </is>
@@ -602,10 +613,8 @@
           <t>Pullman City BHKW-Anlage</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.10.2018</t>
-        </is>
+      <c r="D4" s="1" t="n">
+        <v>43392</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -615,7 +624,7 @@
           <t>Ruberting 30, 94535 Eging a.See</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>SEE945128513080</t>
         </is>
@@ -651,10 +660,8 @@
           <t>BHKW GDM15</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.10.2003</t>
-        </is>
+      <c r="D5" s="1" t="n">
+        <v>37895</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -664,7 +671,7 @@
           <t>Prinzregentenstraße 159, 81677 München</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>SEE961053147558</t>
         </is>
@@ -700,10 +707,8 @@
           <t>BHKW 1</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.6.2018</t>
-        </is>
+      <c r="D6" s="1" t="n">
+        <v>43272</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -713,7 +718,7 @@
           <t>Bachstraße 15, 94072 Bad Füssing</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>SEE999514598113</t>
         </is>
@@ -749,10 +754,8 @@
           <t>BHKW Kloster Banz</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20.9.2011</t>
-        </is>
+      <c r="D7" s="1" t="n">
+        <v>40806</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -762,7 +765,7 @@
           <t>Kloster Banz 1, 96231 Bad Staffelstein</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>SEE922558915097</t>
         </is>
@@ -798,10 +801,8 @@
           <t>86150-1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.1.2019</t>
-        </is>
+      <c r="D8" s="1" t="n">
+        <v>43473</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -811,7 +812,7 @@
           <t>Gratzmüllerstraße 8, 86150 Augsburg</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>SEE904057425536</t>
         </is>
@@ -847,10 +848,8 @@
           <t>BHKW RG</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14.8.2018</t>
-        </is>
+      <c r="D9" s="1" t="n">
+        <v>43326</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -860,7 +859,7 @@
           <t>Max-Planck-Straße 23, 95233 Helmbrechts</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>SEE994066938325</t>
         </is>
@@ -896,10 +895,8 @@
           <t>DLZ BHKW01</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.12.2013</t>
-        </is>
+      <c r="D10" s="1" t="n">
+        <v>41625</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
@@ -909,7 +906,7 @@
           <t>Roland-Dorschner-Straße 1, 95100 Selb</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>SEE937456251871</t>
         </is>
@@ -945,10 +942,8 @@
           <t>SVI0266</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.9.2013</t>
-        </is>
+      <c r="D11" s="1" t="n">
+        <v>41526</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -958,7 +953,7 @@
           <t>Erich-Zeitler-Straße 6, 85737 Ismaning</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>SEE975592614723</t>
         </is>
@@ -994,10 +989,8 @@
           <t>BHKW Werk 2 - Industriestraße 40</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.4.2013</t>
-        </is>
+      <c r="D12" s="1" t="n">
+        <v>41365</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -1007,7 +1000,7 @@
           <t>Industriestraße 40, 89331 Burgau</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>SEE948146485544</t>
         </is>
@@ -1043,10 +1036,8 @@
           <t>Unterschleißheim, Gutenbergstr. 5</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>30.7.2018</t>
-        </is>
+      <c r="D13" s="1" t="n">
+        <v>43311</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -1056,7 +1047,7 @@
           <t>Gutenbergstraße 5, 85716 Unterschleißheim</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>SEE957111624000</t>
         </is>
@@ -1092,10 +1083,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.12.2015</t>
-        </is>
+      <c r="D14" s="1" t="n">
+        <v>42349</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1105,7 +1094,7 @@
           <t>Anna-Wimschneider-Straße 1, 85716 Unterschleißheim</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>SEE944687854320</t>
         </is>
@@ -1141,10 +1130,8 @@
           <t>Lernhof</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24.1.2013</t>
-        </is>
+      <c r="D15" s="1" t="n">
+        <v>41298</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -1154,7 +1141,7 @@
           <t>Südring 96, 95032 Hof</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>SEE987867126145</t>
         </is>
@@ -1190,10 +1177,8 @@
           <t>Benseler V12</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.6.2014</t>
-        </is>
+      <c r="D16" s="1" t="n">
+        <v>41802</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1203,7 +1188,7 @@
           <t>Brunfeldstraße 7, 94327 Bogen</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>SEE991565388750</t>
         </is>
@@ -1239,10 +1224,8 @@
           <t>BHKW HAWE Kaufbeuren</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>30.4.2014</t>
-        </is>
+      <c r="D17" s="1" t="n">
+        <v>41759</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1252,7 +1235,7 @@
           <t>Karl-Heilmeier-Straße 1, 87600 Kaufbeuren</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>SEE955340606156</t>
         </is>
@@ -1288,10 +1271,8 @@
           <t>BHKW-Günzburg</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>15.12.2015</t>
-        </is>
+      <c r="D18" s="1" t="n">
+        <v>42353</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1301,7 +1282,7 @@
           <t>Max-Planck-Straße 9, 89312 Günzburg</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>SEE967888931980</t>
         </is>
@@ -1337,10 +1318,8 @@
           <t>BHKW Sonthofen Mittagstraße</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>23.6.2014</t>
-        </is>
+      <c r="D19" s="1" t="n">
+        <v>41813</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1350,7 +1329,7 @@
           <t>Mittagstraße 24, 87527 Sonthofen</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>SEE935270575876</t>
         </is>
@@ -1386,10 +1365,8 @@
           <t>BHKW-P</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.5.2017</t>
-        </is>
+      <c r="D20" s="1" t="n">
+        <v>42856</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1399,7 +1376,7 @@
           <t>Wernher-von-Braun-Straße 12, 85640 Putzbrunn</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>SEE937852053758</t>
         </is>
@@ -1435,10 +1412,8 @@
           <t>Blockheizkraftwerk  Fachklinik Allgäu</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.8.2016</t>
-        </is>
+      <c r="D21" s="1" t="n">
+        <v>42583</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1448,7 +1423,7 @@
           <t>Peter-Heel-Straße 29, 87459 Pfronten</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>SEE984143858837</t>
         </is>
@@ -1484,10 +1459,8 @@
           <t>Schnell BHKW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>30.6.2016</t>
-        </is>
+      <c r="D22" s="1" t="n">
+        <v>42551</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1497,7 +1470,7 @@
           <t>Hohe Straße 20, 95030 Hof</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>SEE971140307642</t>
         </is>
@@ -1533,10 +1506,8 @@
           <t>Plattenäcker 30, Coburg, BHKW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20.2.2015</t>
-        </is>
+      <c r="D23" s="1" t="n">
+        <v>42055</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -1546,7 +1517,7 @@
           <t>Plattenäcker 30, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>SEE943315865240</t>
         </is>
@@ -1582,10 +1553,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.3.2016</t>
-        </is>
+      <c r="D24" s="1" t="n">
+        <v>42438</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -1595,7 +1564,7 @@
           <t>Beuthener Straße 43, 90471 Nürnberg</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>SEE926257440362</t>
         </is>
@@ -1631,10 +1600,8 @@
           <t>BHKW II B</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.12.2016</t>
-        </is>
+      <c r="D25" s="1" t="n">
+        <v>42712</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -1644,7 +1611,7 @@
           <t>Kurallee 1, 94072 Bad Füssing</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>SEE971115325121</t>
         </is>
@@ -1680,10 +1647,8 @@
           <t>BHKW RK1</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>23.12.2015</t>
-        </is>
+      <c r="D26" s="1" t="n">
+        <v>42361</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -1693,7 +1658,7 @@
           <t>Nymphenburger Straße 163, 80634 München</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>SEE966379054566</t>
         </is>
@@ -1729,10 +1694,8 @@
           <t>BHKW Halle 7</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>16.12.2015</t>
-        </is>
+      <c r="D27" s="1" t="n">
+        <v>42354</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -1742,7 +1705,7 @@
           <t>Graflinger Straße 228, 94469 Deggendorf</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>SEE947828860877</t>
         </is>
@@ -1778,10 +1741,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>11.11.2015</t>
-        </is>
+      <c r="D28" s="1" t="n">
+        <v>42319</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -1791,7 +1752,7 @@
           <t>Cyclostraße 92, 85229 Markt Indersdorf</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>SEE917932142534</t>
         </is>
@@ -1827,10 +1788,8 @@
           <t>BHKW 1 Stephanstraße</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.4.2019</t>
-        </is>
+      <c r="D29" s="1" t="n">
+        <v>43559</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -1840,7 +1799,7 @@
           <t>Stephanstraße 49, 90478 Nürnberg</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>SEE945774154606</t>
         </is>
@@ -1876,10 +1835,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>17.12.2017</t>
-        </is>
+      <c r="D30" s="1" t="n">
+        <v>43086</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -1889,7 +1846,7 @@
           <t>Grüntenstraße 2, 87549 Rettenberg</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>SEE933171247243</t>
         </is>
@@ -1925,10 +1882,8 @@
           <t>BHKW Smartblock 50 Modul 1</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7.3.2019</t>
-        </is>
+      <c r="D31" s="1" t="n">
+        <v>43531</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
@@ -1938,7 +1893,7 @@
           <t>Siemensstraße 9, 85716 Unterschleißheim</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>SEE933748072476</t>
         </is>
@@ -1974,10 +1929,8 @@
           <t>BHKW Viessmann 140kW</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.4.2016</t>
-        </is>
+      <c r="D32" s="1" t="n">
+        <v>42467</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1987,7 +1940,7 @@
           <t>Industriestraße 23, 96317 Kronach</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>SEE929656463321</t>
         </is>
@@ -2023,10 +1976,8 @@
           <t>KWK 16</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>25.1.2019</t>
-        </is>
+      <c r="D33" s="1" t="n">
+        <v>43490</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -2036,7 +1987,7 @@
           <t>Martin-Luther-Straße 46, 96472 Rödental</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>SEE912161292616</t>
         </is>
@@ -2072,10 +2023,8 @@
           <t>BHKW Nürnberg</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>18.1.2018</t>
-        </is>
+      <c r="D34" s="1" t="n">
+        <v>43118</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -2085,7 +2034,7 @@
           <t>Gutenstetter Straße 2, 90449 Nürnberg</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>SEE938622884732</t>
         </is>
@@ -2121,10 +2070,8 @@
           <t>Fritz-Hintermayr-Straße</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>13.11.2018</t>
-        </is>
+      <c r="D35" s="1" t="n">
+        <v>43417</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
@@ -2134,7 +2081,7 @@
           <t>Fritz-Hintermayr-Straße 7, 86159 Augsburg</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>SEE918785216892</t>
         </is>
@@ -2170,10 +2117,8 @@
           <t>Generator BHKW Luisenstr. 37</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.11.2010</t>
-        </is>
+      <c r="D36" s="1" t="n">
+        <v>40483</v>
       </c>
       <c r="E36" t="n">
         <v>14</v>
@@ -2183,7 +2128,7 @@
           <t>Luisenstraße 37, 80333 München</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>SEE971121402175</t>
         </is>
@@ -2219,10 +2164,8 @@
           <t>BHKW 1.01</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.11.2012</t>
-        </is>
+      <c r="D37" s="1" t="n">
+        <v>41219</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -2232,7 +2175,7 @@
           <t>Mühlsteig 27, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>SEE924941604144</t>
         </is>
@@ -2268,10 +2211,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>15.3.2019</t>
-        </is>
+      <c r="D38" s="1" t="n">
+        <v>43539</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -2281,7 +2222,7 @@
           <t>Schwanthalerstraße 35, 94501 Aidenbach</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>SEE903242925158</t>
         </is>
@@ -2317,10 +2258,8 @@
           <t>BHKW Europarkhotel</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>26.1.2009</t>
-        </is>
+      <c r="D39" s="1" t="n">
+        <v>39839</v>
       </c>
       <c r="E39" t="n">
         <v>16</v>
@@ -2330,7 +2269,7 @@
           <t>Am Kapellenberg 2, 87629 Füssen</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>SEE963632178786</t>
         </is>
@@ -2366,10 +2305,8 @@
           <t>BHKW 3.02</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8.11.2012</t>
-        </is>
+      <c r="D40" s="1" t="n">
+        <v>41221</v>
       </c>
       <c r="E40" t="n">
         <v>12</v>
@@ -2379,7 +2316,7 @@
           <t>Bahnhofstraße 42, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>SEE995252619585</t>
         </is>
@@ -2415,10 +2352,8 @@
           <t>BHKW 3.03</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8.12.2012</t>
-        </is>
+      <c r="D41" s="1" t="n">
+        <v>41251</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -2428,7 +2363,7 @@
           <t>Bahnhofstraße 42, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>SEE923674370890</t>
         </is>
@@ -2464,10 +2399,8 @@
           <t>BHKW 5.01</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.12.2012</t>
-        </is>
+      <c r="D42" s="1" t="n">
+        <v>41248</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -2477,7 +2410,7 @@
           <t>Richard-Wengenmeier-Platz 1, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>SEE903710917302</t>
         </is>
@@ -2513,10 +2446,8 @@
           <t>BHKW 50 Küche</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>21.5.2019</t>
-        </is>
+      <c r="D43" s="1" t="n">
+        <v>43606</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -2526,7 +2457,7 @@
           <t>Ed 1, 94148 Kirchham</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>SEE917849832443</t>
         </is>
@@ -2562,10 +2493,8 @@
           <t>BHKW 6 BPE</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>20.5.2019</t>
-        </is>
+      <c r="D44" s="1" t="n">
+        <v>43605</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -2575,7 +2504,7 @@
           <t>Am Baggersee 2, 87674 Ruderatshofen</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>SEE914234735563</t>
         </is>
@@ -2611,10 +2540,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>22.7.2014</t>
-        </is>
+      <c r="D45" s="1" t="n">
+        <v>41842</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -2624,7 +2551,7 @@
           <t>Michael-Faist-Straße 11, 86381 Krumbach</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>SEE959198660490</t>
         </is>
@@ -2660,10 +2587,8 @@
           <t>BHKW-Pasing</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>22.11.2012</t>
-        </is>
+      <c r="D46" s="1" t="n">
+        <v>41235</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2673,7 +2598,7 @@
           <t>Am Stadtpark 20, 81243 München</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>SEE998412529182</t>
         </is>
@@ -2709,10 +2634,8 @@
           <t>BHKW Hallenbad Aquawell</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>25.7.2017</t>
-        </is>
+      <c r="D47" s="1" t="n">
+        <v>42941</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -2722,7 +2645,7 @@
           <t>Adolf-Haack-Straße 7, 95233 Helmbrechts</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>SEE959942294162</t>
         </is>
@@ -2758,10 +2681,8 @@
           <t>BHKW G2471</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>10.12.2015</t>
-        </is>
+      <c r="D48" s="1" t="n">
+        <v>42348</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -2771,7 +2692,7 @@
           <t>Ifenstraße 2, 87719 Mindelheim</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>SEE994485603644</t>
         </is>
@@ -2807,10 +2728,8 @@
           <t>Klinikum Kaufbeuren</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>19.12.2014</t>
-        </is>
+      <c r="D49" s="1" t="n">
+        <v>41992</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -2820,7 +2739,7 @@
           <t>Dr.-Gutermann-Straße 2, 87600 Kaufbeuren</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>SEE996571738667</t>
         </is>
@@ -2856,10 +2775,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>18.3.2015</t>
-        </is>
+      <c r="D50" s="1" t="n">
+        <v>42081</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -2869,7 +2786,7 @@
           <t>Hans-Böckler-Str. 7, 87527 Sonthofen</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>SEE906081693318</t>
         </is>
@@ -2905,10 +2822,8 @@
           <t>BHKW 1 MDH</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.7.2014</t>
-        </is>
+      <c r="D51" s="1" t="n">
+        <v>41823</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -2918,7 +2833,7 @@
           <t>Bad Wörishofer Straße 44, 87719 Mindelheim</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>SEE933747445004</t>
         </is>
@@ -2954,10 +2869,8 @@
           <t>Fichtelgebirgshalle Wunsiedel</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>16.10.2017</t>
-        </is>
+      <c r="D52" s="1" t="n">
+        <v>43024</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -2967,7 +2880,7 @@
           <t>Jean-Paul-Straße 5, 95632 Wunsiedel</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>SEE941306278802</t>
         </is>
@@ -3003,10 +2916,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>22.12.2014</t>
-        </is>
+      <c r="D53" s="1" t="n">
+        <v>41995</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -3016,7 +2927,7 @@
           <t>Augsburger Straße 50, 87600 Kaufbeuren</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>SEE988627886507</t>
         </is>
@@ -3052,10 +2963,8 @@
           <t>BHKW 94040700188</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>19.5.2017</t>
-        </is>
+      <c r="D54" s="1" t="n">
+        <v>42874</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -3065,7 +2974,7 @@
           <t>Münchener Straße 33, 86551 Aichach</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>SEE914387141075</t>
         </is>
@@ -3101,10 +3010,8 @@
           <t>BHKW 94040700187</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>19.5.2017</t>
-        </is>
+      <c r="D55" s="1" t="n">
+        <v>42874</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -3114,7 +3021,7 @@
           <t>Münchener Straße 33, 86551 Aichach</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>SEE998473915610</t>
         </is>
@@ -3150,10 +3057,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>11.8.2017</t>
-        </is>
+      <c r="D56" s="1" t="n">
+        <v>42958</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -3163,7 +3068,7 @@
           <t>Eschachweg 7, 89264 Weißenhorn</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>SEE945427188798</t>
         </is>
@@ -3199,10 +3104,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>20.10.2013</t>
-        </is>
+      <c r="D57" s="1" t="n">
+        <v>41567</v>
       </c>
       <c r="E57" t="n">
         <v>11</v>
@@ -3212,7 +3115,7 @@
           <t>Wittelsbacherring 6, 94474 Vilshofen</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>SEE990256593312</t>
         </is>
@@ -3248,10 +3151,8 @@
           <t>BHKW Geb. 15</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>14.12.2015</t>
-        </is>
+      <c r="D58" s="1" t="n">
+        <v>42352</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -3261,7 +3162,7 @@
           <t>Bahnhofstraße 4, 87787 Wolfertschwenden</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>SEE918254135433</t>
         </is>
@@ -3297,10 +3198,8 @@
           <t>BHKW Heizungsraum</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>22.3.2018</t>
-        </is>
+      <c r="D59" s="1" t="n">
+        <v>43181</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -3310,7 +3209,7 @@
           <t>Otto-Lilienthal-Ring 1, 85622 Feldkirchen</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>SEE928935079277</t>
         </is>
@@ -3346,10 +3245,8 @@
           <t>BHKW Augsburg, Nürnberger Str.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>18.8.2011</t>
-        </is>
+      <c r="D60" s="1" t="n">
+        <v>40773</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -3359,7 +3256,7 @@
           <t>Nürnberger Straße 2, 86156 Augsburg</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>SEE973851742804</t>
         </is>
@@ -3395,10 +3292,8 @@
           <t>BHKW-Anlage Heizungskeller</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>18.6.2008</t>
-        </is>
+      <c r="D61" s="1" t="n">
+        <v>39617</v>
       </c>
       <c r="E61" t="n">
         <v>16</v>
@@ -3408,7 +3303,7 @@
           <t>Sachsenweg 11, 87561 Oberstdorf</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>SEE907691649795</t>
         </is>
@@ -3444,10 +3339,8 @@
           <t>Erdgas-BHKW Kronach</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>23.4.2013</t>
-        </is>
+      <c r="D62" s="1" t="n">
+        <v>41387</v>
       </c>
       <c r="E62" t="n">
         <v>11</v>
@@ -3457,7 +3350,7 @@
           <t>Gottfried-Neukam-Straße 25, 96317 Kronach</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>SEE936363415543</t>
         </is>
@@ -3493,10 +3386,8 @@
           <t>STKM_KN_HsA_BHKW</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>24.3.2015</t>
-        </is>
+      <c r="D63" s="1" t="n">
+        <v>42087</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -3506,7 +3397,7 @@
           <t>Oskar-Maria-Graf-Ring 51, 81737 München</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>SEE920058632582</t>
         </is>
@@ -3542,10 +3433,8 @@
           <t>BHKW 4 BPE</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>30.8.2016</t>
-        </is>
+      <c r="D64" s="1" t="n">
+        <v>42612</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -3555,7 +3444,7 @@
           <t>Am Baggersee 2, 87674 Ruderatshofen</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>SEE930700119200</t>
         </is>
@@ -3591,10 +3480,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>5.6.2014</t>
-        </is>
+      <c r="D65" s="1" t="n">
+        <v>41795</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -3604,7 +3491,7 @@
           <t>Peter-Dörfler-Straße 13, 86199 Augsburg</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>SEE989282814294</t>
         </is>
@@ -3640,10 +3527,8 @@
           <t>BHKW Sudetenstraße</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>23.7.2014</t>
-        </is>
+      <c r="D66" s="1" t="n">
+        <v>41843</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -3653,7 +3538,7 @@
           <t>Sudetenstraße 1, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>SEE957582721376</t>
         </is>
@@ -3689,10 +3574,8 @@
           <t>FTW KHT BHKW Geb. 1.3 (Büro)</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>20.11.2015</t>
-        </is>
+      <c r="D67" s="1" t="n">
+        <v>42328</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -3702,7 +3585,7 @@
           <t>Auenstraße 7, 86438 Kissing</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>SEE969830043512</t>
         </is>
@@ -3738,10 +3621,8 @@
           <t>KHC BHKW</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1.7.2011</t>
-        </is>
+      <c r="D68" s="1" t="n">
+        <v>40725</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -3751,7 +3632,7 @@
           <t>Sankt-Johannis-Mühlgasse 19, 90419 Nürnberg</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>SEE918743115106</t>
         </is>
@@ -3787,10 +3668,8 @@
           <t>Buderus Loganova EN50</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>8.7.2014</t>
-        </is>
+      <c r="D69" s="1" t="n">
+        <v>41828</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -3800,7 +3679,7 @@
           <t>Loher Hauptstraße 124, 90427 Nürnberg</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>SEE920723976881</t>
         </is>
@@ -3836,10 +3715,8 @@
           <t>Vitobloc 200 EM-140/207</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>23.7.2014</t>
-        </is>
+      <c r="D70" s="1" t="n">
+        <v>41843</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -3849,7 +3726,7 @@
           <t>Äußere Bayreuther Straße 230, 90411 Nürnberg</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>SEE946486652299</t>
         </is>
@@ -3885,10 +3762,8 @@
           <t>BHKW-Kloster Holzen</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>12.12.2013</t>
-        </is>
+      <c r="D71" s="1" t="n">
+        <v>41620</v>
       </c>
       <c r="E71" t="n">
         <v>11</v>
@@ -3898,7 +3773,7 @@
           <t>Klosterstraße 1, 86695 Allmannshofen</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>SEE976444810140</t>
         </is>
@@ -3934,10 +3809,8 @@
           <t>MODEON, Schwabenstr. 58, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>16.1.2009</t>
-        </is>
+      <c r="D72" s="1" t="n">
+        <v>39829</v>
       </c>
       <c r="E72" t="n">
         <v>16</v>
@@ -3947,7 +3820,7 @@
           <t>Schwabenstraße 58, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>SEE921184916331</t>
         </is>
@@ -3983,10 +3856,8 @@
           <t>BHKW-Krumbad</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>28.11.2012</t>
-        </is>
+      <c r="D73" s="1" t="n">
+        <v>41241</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
@@ -3996,7 +3867,7 @@
           <t>Bischof-Sproll-Straße 1, 86381 Krumbach</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>SEE986654204929</t>
         </is>
@@ -4032,10 +3903,8 @@
           <t>0302-021-0003 BHKW Vitobloc</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>31.7.2015</t>
-        </is>
+      <c r="D74" s="1" t="n">
+        <v>42216</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -4045,7 +3914,7 @@
           <t>Höhenstraße 56, 87629 Füssen</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>SEE957593176806</t>
         </is>
@@ -4081,10 +3950,8 @@
           <t>BHKW_2019</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>31.10.2019</t>
-        </is>
+      <c r="D75" s="1" t="n">
+        <v>43769</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -4094,7 +3961,7 @@
           <t>Thermalbadstraße 18, 96476 Bad Rodach</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>SEE918009532562</t>
         </is>
@@ -4130,10 +3997,8 @@
           <t>BHKW 140 KW</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>6.10.2014</t>
-        </is>
+      <c r="D76" s="1" t="n">
+        <v>41918</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -4143,7 +4008,7 @@
           <t>Am Gewerbepark 2, 94339 Leiblfing</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>SEE999517080912</t>
         </is>
@@ -4179,10 +4044,8 @@
           <t>BHKW_2016</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>13.12.2016</t>
-        </is>
+      <c r="D77" s="1" t="n">
+        <v>42717</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -4192,7 +4055,7 @@
           <t>Thermalbadstraße 18, 96476 Bad Rodach</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>SEE974641464272</t>
         </is>
@@ -4228,10 +4091,8 @@
           <t>BKHW Füssen</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>17.6.2019</t>
-        </is>
+      <c r="D78" s="1" t="n">
+        <v>43633</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -4241,7 +4102,7 @@
           <t>nan nan, 87629 Füssen</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>SEE958281062111</t>
         </is>
@@ -4277,10 +4138,8 @@
           <t>BHKW Schulzentrum Immenstadt</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>16.6.2016</t>
-        </is>
+      <c r="D79" s="1" t="n">
+        <v>42537</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -4290,7 +4149,7 @@
           <t>Missener Straße 25, 87509 Immenstadt</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" s="2" t="inlineStr">
         <is>
           <t>SEE908783623433</t>
         </is>
@@ -4326,10 +4185,8 @@
           <t>KWK Produktion FG2</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>25.2.2014</t>
-        </is>
+      <c r="D80" s="1" t="n">
+        <v>41695</v>
       </c>
       <c r="E80" t="n">
         <v>11</v>
@@ -4339,7 +4196,7 @@
           <t>John-F.-Kennedy-Straße 1, 89343 Jettingen-Scheppach</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>SEE977889207304</t>
         </is>
@@ -4375,10 +4232,8 @@
           <t>KWK Verwaltung</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>4.7.2019</t>
-        </is>
+      <c r="D81" s="1" t="n">
+        <v>43650</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -4388,7 +4243,7 @@
           <t>John-F.-Kennedy-Straße 1, 89343 Jettingen-Scheppach</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" s="2" t="inlineStr">
         <is>
           <t>SEE911951261344</t>
         </is>
@@ -4424,10 +4279,8 @@
           <t>BHKW HEDI</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>20.6.2013</t>
-        </is>
+      <c r="D82" s="1" t="n">
+        <v>41445</v>
       </c>
       <c r="E82" t="n">
         <v>11</v>
@@ -4437,7 +4290,7 @@
           <t>Schöneggweg 17, 87727 Babenhausen</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>SEE955489876007</t>
         </is>
@@ -4473,10 +4326,8 @@
           <t>Erdgas-BHKW-238kW</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>31.10.2013</t>
-        </is>
+      <c r="D83" s="1" t="n">
+        <v>41578</v>
       </c>
       <c r="E83" t="n">
         <v>11</v>
@@ -4486,7 +4337,7 @@
           <t>Pretzfelder Straße 7, 90425 Nürnberg</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>SEE957405222073</t>
         </is>
@@ -4522,10 +4373,8 @@
           <t>Modul 1641</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>23.9.2013</t>
-        </is>
+      <c r="D84" s="1" t="n">
+        <v>41540</v>
       </c>
       <c r="E84" t="n">
         <v>11</v>
@@ -4535,7 +4384,7 @@
           <t>Kurring 16, 96476 Bad Rodach</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>SEE910245880766</t>
         </is>
@@ -4571,10 +4420,8 @@
           <t>Modul 1690</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>23.9.2013</t>
-        </is>
+      <c r="D85" s="1" t="n">
+        <v>41540</v>
       </c>
       <c r="E85" t="n">
         <v>11</v>
@@ -4584,7 +4431,7 @@
           <t>Kurring 16, 96476 Bad Rodach</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>SEE980912210554</t>
         </is>
@@ -4620,10 +4467,8 @@
           <t>BHKW München, Blutenburgstr. 1a</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>13.5.2013</t>
-        </is>
+      <c r="D86" s="1" t="n">
+        <v>41407</v>
       </c>
       <c r="E86" t="n">
         <v>11</v>
@@ -4633,7 +4478,7 @@
           <t>Blutenburgstraße 1 a, 80636 München</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>SEE995745997251</t>
         </is>
@@ -4669,10 +4514,8 @@
           <t>KWK-Anlage</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>11.3.2014</t>
-        </is>
+      <c r="D87" s="1" t="n">
+        <v>41709</v>
       </c>
       <c r="E87" t="n">
         <v>11</v>
@@ -4682,7 +4525,7 @@
           <t>Am Kurwald 10, 94086 Bad Griesbach</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" s="2" t="inlineStr">
         <is>
           <t>SEE985290556379</t>
         </is>
@@ -4718,10 +4561,8 @@
           <t>BHKW Scheidegg</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>13.12.2013</t>
-        </is>
+      <c r="D88" s="1" t="n">
+        <v>41621</v>
       </c>
       <c r="E88" t="n">
         <v>11</v>
@@ -4731,7 +4572,7 @@
           <t>Oberschwenden 1, 88175 Scheidegg</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>SEE979175435422</t>
         </is>
@@ -4767,10 +4608,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>8.12.2016</t>
-        </is>
+      <c r="D89" s="1" t="n">
+        <v>42712</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -4780,7 +4619,7 @@
           <t>Röthenstraße 21, 96247 Michelau</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" s="2" t="inlineStr">
         <is>
           <t>SEE964999005777</t>
         </is>
@@ -4816,10 +4655,8 @@
           <t>ABR938013566421 BHKW GS300</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>28.7.2014</t>
-        </is>
+      <c r="D90" s="1" t="n">
+        <v>41848</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -4829,7 +4666,7 @@
           <t>An der Kapuzinermauer 2, 89312 Günzburg</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>SEE993310975512</t>
         </is>
@@ -4865,10 +4702,8 @@
           <t>BHKW-1, Nikolastraße 1</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>20.12.2017</t>
-        </is>
+      <c r="D91" s="1" t="n">
+        <v>43089</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -4878,7 +4713,7 @@
           <t>Nikolastraße 1, 94032 Passau</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" s="2" t="inlineStr">
         <is>
           <t>SEE986574571682</t>
         </is>
@@ -4914,10 +4749,8 @@
           <t>BHKW-Zum Klärwerk33</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>9.9.2015</t>
-        </is>
+      <c r="D92" s="1" t="n">
+        <v>42256</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -4927,7 +4760,7 @@
           <t>Zum Klärwerk 33, 89269 Vöhringen</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>SEE961739356045</t>
         </is>
@@ -4963,10 +4796,8 @@
           <t>BHKW WI</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>23.7.2014</t>
-        </is>
+      <c r="D93" s="1" t="n">
+        <v>41843</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -4976,7 +4807,7 @@
           <t>Fabrikstraße 7, 89281 Altenstadt</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>SEE993996813399</t>
         </is>
@@ -5012,10 +4843,8 @@
           <t>NÜRN_070 #01202</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>3.1.2020</t>
-        </is>
+      <c r="D94" s="1" t="n">
+        <v>43833</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -5025,7 +4854,7 @@
           <t>Gernotstraße 47, 90439 Nürnberg</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>SEE946262501117</t>
         </is>
@@ -5061,10 +4890,8 @@
           <t>Schulverband Babenhausen</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>12.4.2017</t>
-        </is>
+      <c r="D95" s="1" t="n">
+        <v>42837</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -5074,7 +4901,7 @@
           <t>Pestalozzistraße 7, 87727 Babenhausen</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" s="2" t="inlineStr">
         <is>
           <t>SEE907057207874</t>
         </is>
@@ -5110,10 +4937,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>1.6.2016</t>
-        </is>
+      <c r="D96" s="1" t="n">
+        <v>42522</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -5123,7 +4948,7 @@
           <t>Sebastian-Mayr-Straße 2, 86316 Friedberg</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>SEE987193941405</t>
         </is>
@@ -5159,10 +4984,8 @@
           <t>BHKW 2015 Legau</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>23.7.2015</t>
-        </is>
+      <c r="D97" s="1" t="n">
+        <v>42208</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -5172,7 +4995,7 @@
           <t>Rapunzelstraße 1, 87764 Legau</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" s="2" t="inlineStr">
         <is>
           <t>SEE910743803076</t>
         </is>
@@ -5208,10 +5031,8 @@
           <t>BHKW 50kW 2</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>30.12.2010</t>
-        </is>
+      <c r="D98" s="1" t="n">
+        <v>40542</v>
       </c>
       <c r="E98" t="n">
         <v>14</v>
@@ -5221,7 +5042,7 @@
           <t>Krautgartenweg 8, 86441 Zusmarshausen</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>SEE979987335927</t>
         </is>
@@ -5257,10 +5078,8 @@
           <t>BHKW-Pfaffenhausen</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>24.7.2014</t>
-        </is>
+      <c r="D99" s="1" t="n">
+        <v>41844</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -5270,7 +5089,7 @@
           <t>Pfarrstraße 6, 87772 Pfaffenhausen</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>SEE917597644183</t>
         </is>
@@ -5306,10 +5125,8 @@
           <t>BHKW Hallenbad</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>14.5.2014</t>
-        </is>
+      <c r="D100" s="1" t="n">
+        <v>41773</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -5319,7 +5136,7 @@
           <t>Münchener Straße 22, 86807 Buchloe</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" s="2" t="inlineStr">
         <is>
           <t>SEE999083262606</t>
         </is>
@@ -5355,10 +5172,8 @@
           <t>Viessmann BHKW</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>18.2.2014</t>
-        </is>
+      <c r="D101" s="1" t="n">
+        <v>41688</v>
       </c>
       <c r="E101" t="n">
         <v>11</v>
@@ -5368,7 +5183,7 @@
           <t>Am Wiesengrund 20, 95032 Hof</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>SEE970046784557</t>
         </is>
@@ -5404,10 +5219,8 @@
           <t>BHKW Nautilla</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>3.12.2014</t>
-        </is>
+      <c r="D102" s="1" t="n">
+        <v>41976</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -5417,7 +5230,7 @@
           <t>Gottfried-Hart-Straße 6, 89257 Illertissen</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>SEE926627831912</t>
         </is>
@@ -5453,10 +5266,8 @@
           <t>BHKW Freibad Gersthofen</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1.5.1992</t>
-        </is>
+      <c r="D103" s="1" t="n">
+        <v>33725</v>
       </c>
       <c r="E103" t="n">
         <v>32</v>
@@ -5466,7 +5277,7 @@
           <t>Sportallee 24, 86368 Gersthofen</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>SEE967204326421</t>
         </is>
@@ -5502,10 +5313,8 @@
           <t>BHKW-Nürnberg</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>18.9.2016</t>
-        </is>
+      <c r="D104" s="1" t="n">
+        <v>42631</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -5515,7 +5324,7 @@
           <t>Geisseestraße 65, 90439 Nürnberg</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>SEE914553029046</t>
         </is>
@@ -5551,10 +5360,8 @@
           <t>BHKW 140</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>13.7.2016</t>
-        </is>
+      <c r="D105" s="1" t="n">
+        <v>42564</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -5564,7 +5371,7 @@
           <t>Angerstraße 1, 96268 Mitwitz</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>SEE989305388511</t>
         </is>
@@ -5600,10 +5407,8 @@
           <t>BHKW Vitoloc 200EM-50/81</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>6.12.2012</t>
-        </is>
+      <c r="D106" s="1" t="n">
+        <v>41249</v>
       </c>
       <c r="E106" t="n">
         <v>12</v>
@@ -5613,7 +5418,7 @@
           <t>Schönbrunner Straße 17, 96215 Lichtenfels</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G106" s="2" t="inlineStr">
         <is>
           <t>SEE991260643628</t>
         </is>
@@ -5649,10 +5454,8 @@
           <t>BHKW-Hotel</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>20.2.2020</t>
-        </is>
+      <c r="D107" s="1" t="n">
+        <v>43881</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -5662,7 +5465,7 @@
           <t>Am Kurpark 7, 96231 Bad Staffelstein</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>SEE907077863272</t>
         </is>
@@ -5698,10 +5501,8 @@
           <t>Floriansanger1_BHKW_Mot1</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>16.12.2019</t>
-        </is>
+      <c r="D108" s="1" t="n">
+        <v>43815</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -5711,7 +5512,7 @@
           <t>Floriansanger 1, 85579 Neubiberg</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G108" s="2" t="inlineStr">
         <is>
           <t>SEE906963502523</t>
         </is>
@@ -5747,10 +5548,8 @@
           <t>BHKW 50kwh</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>3.11.2017</t>
-        </is>
+      <c r="D109" s="1" t="n">
+        <v>43042</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -5760,7 +5559,7 @@
           <t>Industriestraße 11, 86836 Untermeitingen</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G109" s="2" t="inlineStr">
         <is>
           <t>SEE970371498358</t>
         </is>
@@ -5796,10 +5595,8 @@
           <t>BHKW-Vof</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>1.5.2013</t>
-        </is>
+      <c r="D110" s="1" t="n">
+        <v>41395</v>
       </c>
       <c r="E110" t="n">
         <v>11</v>
@@ -5809,7 +5606,7 @@
           <t>Krankenhausstraße 32, 94474 Vilshofen</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>SEE977778330755</t>
         </is>
@@ -5845,10 +5642,8 @@
           <t>BHKW-Rot</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>27.11.2012</t>
-        </is>
+      <c r="D111" s="1" t="n">
+        <v>41240</v>
       </c>
       <c r="E111" t="n">
         <v>12</v>
@@ -5858,7 +5653,7 @@
           <t>Simbacher Straße 35, 94094 Rotthalmünster</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G111" s="2" t="inlineStr">
         <is>
           <t>SEE959989898002</t>
         </is>
@@ -5894,10 +5689,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>21.6.2016</t>
-        </is>
+      <c r="D112" s="1" t="n">
+        <v>42542</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -5907,7 +5700,7 @@
           <t>Krumbacher Straße 45, 89335 Ichenhausen</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" s="2" t="inlineStr">
         <is>
           <t>SEE921914336613</t>
         </is>
@@ -5943,10 +5736,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>30.4.2013</t>
-        </is>
+      <c r="D113" s="1" t="n">
+        <v>41394</v>
       </c>
       <c r="E113" t="n">
         <v>11</v>
@@ -5956,7 +5747,7 @@
           <t>Buchfinkenweg 2, 87527 Sonthofen</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G113" s="2" t="inlineStr">
         <is>
           <t>SEE968171443548</t>
         </is>
@@ -5992,10 +5783,8 @@
           <t>BHKW 1</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>18.2.2015</t>
-        </is>
+      <c r="D114" s="1" t="n">
+        <v>42053</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -6005,7 +5794,7 @@
           <t>Dr.-Herbert-Kittel-Straße 10, 87600 Kaufbeuren</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G114" s="2" t="inlineStr">
         <is>
           <t>SEE953916559721</t>
         </is>
@@ -6041,10 +5830,8 @@
           <t>BHKW 2</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>30.11.2015</t>
-        </is>
+      <c r="D115" s="1" t="n">
+        <v>42338</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -6054,7 +5841,7 @@
           <t>Dr.-Herbert-Kittel-Straße 10, 87600 Kaufbeuren</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" s="2" t="inlineStr">
         <is>
           <t>SEE982787098619</t>
         </is>
@@ -6090,10 +5877,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>10.3.2015</t>
-        </is>
+      <c r="D116" s="1" t="n">
+        <v>42073</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -6103,7 +5888,7 @@
           <t>Rickenbacher Straße 119, 88131 Lindau</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G116" s="2" t="inlineStr">
         <is>
           <t>SEE947986715286</t>
         </is>
@@ -6139,10 +5924,8 @@
           <t>BHKW - PZ Günzburg</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>17.12.2015</t>
-        </is>
+      <c r="D117" s="1" t="n">
+        <v>42355</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -6152,7 +5935,7 @@
           <t>Ferdinand-Porsche-Straße 1, 89312 Günzburg</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G117" s="2" t="inlineStr">
         <is>
           <t>SEE976003509126</t>
         </is>
@@ -6188,10 +5971,8 @@
           <t>BHKW Haus 2</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>16.8.2017</t>
-        </is>
+      <c r="D118" s="1" t="n">
+        <v>42963</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -6201,7 +5982,7 @@
           <t>Dr.-Frank-Straße 2 b, 86391 Stadtbergen</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G118" s="2" t="inlineStr">
         <is>
           <t>SEE956385928661</t>
         </is>
@@ -6237,10 +6018,8 @@
           <t>PLT Mini-BHKW</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>26.10.2017</t>
-        </is>
+      <c r="D119" s="1" t="n">
+        <v>43034</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -6250,7 +6029,7 @@
           <t>Dr.-Walter-Bruch-Straße 1, 94447 Plattling</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G119" s="2" t="inlineStr">
         <is>
           <t>SEE925152295633</t>
         </is>
@@ -6286,10 +6065,8 @@
           <t>BHKW 1</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>24.1.2019</t>
-        </is>
+      <c r="D120" s="1" t="n">
+        <v>43489</v>
       </c>
       <c r="E120" t="n">
         <v>6</v>
@@ -6299,7 +6076,7 @@
           <t>Professor-Arneth-Straße 2b, 96215 Lichtenfels</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G120" s="2" t="inlineStr">
         <is>
           <t>SEE932792258171</t>
         </is>
@@ -6335,10 +6112,8 @@
           <t>BHKW 2</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>24.1.2019</t>
-        </is>
+      <c r="D121" s="1" t="n">
+        <v>43489</v>
       </c>
       <c r="E121" t="n">
         <v>6</v>
@@ -6348,7 +6123,7 @@
           <t>Professor-Arneth-Straße 2b, 96215 Lichtenfels</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G121" s="2" t="inlineStr">
         <is>
           <t>SEE971050961842</t>
         </is>
@@ -6384,10 +6159,8 @@
           <t>Halle2 (Zwischenüberdachung)</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>18.11.2019</t>
-        </is>
+      <c r="D122" s="1" t="n">
+        <v>43787</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -6397,7 +6170,7 @@
           <t>Kollmering 7, 94535 Eging a.See</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G122" s="2" t="inlineStr">
         <is>
           <t>SEE959575647014</t>
         </is>
@@ -6433,10 +6206,8 @@
           <t>Franz-Kobinger-Straße</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2.2.2012</t>
-        </is>
+      <c r="D123" s="1" t="n">
+        <v>40941</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -6446,7 +6217,7 @@
           <t>Franz-Kobinger-Straße 5, 86157 Augsburg</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G123" s="2" t="inlineStr">
         <is>
           <t>SEE985022045621</t>
         </is>
@@ -6482,10 +6253,8 @@
           <t>Sen10W2.3</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>18.6.2008</t>
-        </is>
+      <c r="D124" s="1" t="n">
+        <v>39617</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -6495,7 +6264,7 @@
           <t>Sennebogenstraße 10, 94315 Straubing</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G124" s="2" t="inlineStr">
         <is>
           <t>SEE967297807166</t>
         </is>
@@ -6531,10 +6300,8 @@
           <t>Servatius- Anna-Hintermayr-Stift</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>26.10.2018</t>
-        </is>
+      <c r="D125" s="1" t="n">
+        <v>43399</v>
       </c>
       <c r="E125" t="n">
         <v>6</v>
@@ -6544,7 +6311,7 @@
           <t>Fritz-Hintermayr-Straße 7, 86159 Augsburg</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G125" s="2" t="inlineStr">
         <is>
           <t>SEE911086953015</t>
         </is>
@@ -6580,10 +6347,8 @@
           <t>Kongress am Park</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>17.9.2013</t>
-        </is>
+      <c r="D126" s="1" t="n">
+        <v>41534</v>
       </c>
       <c r="E126" t="n">
         <v>11</v>
@@ -6593,7 +6358,7 @@
           <t>Gögginger Straße 10, 86159 Augsburg</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G126" s="2" t="inlineStr">
         <is>
           <t>SEE901408603155</t>
         </is>
@@ -6629,10 +6394,8 @@
           <t>BHKW 50 kW alt gibt es nicht mehr</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>10.2.2011</t>
-        </is>
+      <c r="D127" s="1" t="n">
+        <v>40584</v>
       </c>
       <c r="E127" t="n">
         <v>14</v>
@@ -6642,7 +6405,7 @@
           <t>Michael-Kölbl-Straße 1, 85716 Unterschleißheim</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G127" s="2" t="inlineStr">
         <is>
           <t>SEE928425121684</t>
         </is>
@@ -6678,10 +6441,8 @@
           <t>Eschenhofstraße 5</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>5.12.2015</t>
-        </is>
+      <c r="D128" s="1" t="n">
+        <v>42343</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -6691,7 +6452,7 @@
           <t>Eschenhofstraße 5, 86154 Augsburg</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G128" s="2" t="inlineStr">
         <is>
           <t>SEE992397921900</t>
         </is>
@@ -6727,10 +6488,8 @@
           <t>Peterhofstraße 9</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>16.6.2010</t>
-        </is>
+      <c r="D129" s="1" t="n">
+        <v>40345</v>
       </c>
       <c r="E129" t="n">
         <v>14</v>
@@ -6740,7 +6499,7 @@
           <t>Peterhofstraße 9, 86163 Augsburg</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G129" s="2" t="inlineStr">
         <is>
           <t>SEE923438144514</t>
         </is>
@@ -6776,10 +6535,8 @@
           <t>BHKW M</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>18.1.2011</t>
-        </is>
+      <c r="D130" s="1" t="n">
+        <v>40561</v>
       </c>
       <c r="E130" t="n">
         <v>14</v>
@@ -6789,7 +6546,7 @@
           <t>Hofer Straße 40, 95213 Münchberg</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G130" s="2" t="inlineStr">
         <is>
           <t>SEE961478082700</t>
         </is>
@@ -6825,10 +6582,8 @@
           <t>Erdgas-BHKW 4554</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>15.12.2016</t>
-        </is>
+      <c r="D131" s="1" t="n">
+        <v>42719</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -6838,7 +6593,7 @@
           <t>Dachinger Straße 27, 94431 Pilsting</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G131" s="2" t="inlineStr">
         <is>
           <t>SEE988892845551</t>
         </is>
@@ -6874,10 +6629,8 @@
           <t>BHKW BA7</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>11.3.2020</t>
-        </is>
+      <c r="D132" s="1" t="n">
+        <v>43901</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -6887,7 +6640,7 @@
           <t>Robert-Koch-Straße 9, 82152 Planegg</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G132" s="2" t="inlineStr">
         <is>
           <t>SEE914353086560</t>
         </is>
@@ -6923,10 +6676,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>16.9.2013</t>
-        </is>
+      <c r="D133" s="1" t="n">
+        <v>41533</v>
       </c>
       <c r="E133" t="n">
         <v>11</v>
@@ -6936,7 +6687,7 @@
           <t>Gewerbestraße 4, 86879 Wiedergeltingen</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G133" s="2" t="inlineStr">
         <is>
           <t>SEE916149528681</t>
         </is>
@@ -6972,10 +6723,8 @@
           <t>Blockheizkraftwerk Staatl. Realschule Coburg II</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>21.1.2014</t>
-        </is>
+      <c r="D134" s="1" t="n">
+        <v>41660</v>
       </c>
       <c r="E134" t="n">
         <v>11</v>
@@ -6985,7 +6734,7 @@
           <t>Thüringer Straße 5, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G134" s="2" t="inlineStr">
         <is>
           <t>SEE997922123651</t>
         </is>
@@ -7021,10 +6770,8 @@
           <t>BHKW Jugendhotel</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>23.10.2019</t>
-        </is>
+      <c r="D135" s="1" t="n">
+        <v>43761</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -7034,7 +6781,7 @@
           <t>Am Bavariapark 16, 80339 München</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G135" s="2" t="inlineStr">
         <is>
           <t>SEE976108561869</t>
         </is>
@@ -7070,10 +6817,8 @@
           <t>BHKW Werk 2</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>1.7.2000</t>
-        </is>
+      <c r="D136" s="1" t="n">
+        <v>36708</v>
       </c>
       <c r="E136" t="n">
         <v>24</v>
@@ -7083,7 +6828,7 @@
           <t>Gärtnersleite 2, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G136" s="2" t="inlineStr">
         <is>
           <t>SEE926122377045</t>
         </is>
@@ -7119,10 +6864,8 @@
           <t>BHKW Hauptstelle</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>24.5.2012</t>
-        </is>
+      <c r="D137" s="1" t="n">
+        <v>41053</v>
       </c>
       <c r="E137" t="n">
         <v>12</v>
@@ -7132,7 +6875,7 @@
           <t>Sparkassenplatz 1, 85221 Dachau</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G137" s="2" t="inlineStr">
         <is>
           <t>SEE979364102739</t>
         </is>
@@ -7168,10 +6911,8 @@
           <t>BHKW Werk 5</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>21.11.2013</t>
-        </is>
+      <c r="D138" s="1" t="n">
+        <v>41599</v>
       </c>
       <c r="E138" t="n">
         <v>11</v>
@@ -7181,7 +6922,7 @@
           <t>Fliegerweg 2, 95233 Helmbrechts</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G138" s="2" t="inlineStr">
         <is>
           <t>SEE928422920990</t>
         </is>
@@ -7217,10 +6958,8 @@
           <t>Bad Steben Klinik Franken</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>20.9.2011</t>
-        </is>
+      <c r="D139" s="1" t="n">
+        <v>40806</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -7230,7 +6969,7 @@
           <t>Berliner Straße 18, 95138 Bad Steben</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G139" s="2" t="inlineStr">
         <is>
           <t>SEE997000113437</t>
         </is>
@@ -7266,10 +7005,8 @@
           <t>Bad Steben Klinik Auental</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>11.6.2010</t>
-        </is>
+      <c r="D140" s="1" t="n">
+        <v>40340</v>
       </c>
       <c r="E140" t="n">
         <v>14</v>
@@ -7279,7 +7016,7 @@
           <t>Frankenwaldstraße 33, 95138 Bad Steben</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G140" s="2" t="inlineStr">
         <is>
           <t>SEE936400314877</t>
         </is>
@@ -7315,10 +7052,8 @@
           <t>BHKW-Energiezentrale</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>8.11.2007</t>
-        </is>
+      <c r="D141" s="1" t="n">
+        <v>39394</v>
       </c>
       <c r="E141" t="n">
         <v>17</v>
@@ -7328,7 +7063,7 @@
           <t>Rathausstraße 7, 85640 Putzbrunn</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G141" s="2" t="inlineStr">
         <is>
           <t>SEE960764569826</t>
         </is>
@@ -7364,10 +7099,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>26.7.2012</t>
-        </is>
+      <c r="D142" s="1" t="n">
+        <v>41116</v>
       </c>
       <c r="E142" t="n">
         <v>12</v>
@@ -7377,7 +7110,7 @@
           <t>Geisenrieder Straße 42, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G142" s="2" t="inlineStr">
         <is>
           <t>SEE956592492016</t>
         </is>
@@ -7413,10 +7146,8 @@
           <t>BHKW Suic</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>23.11.2017</t>
-        </is>
+      <c r="D143" s="1" t="n">
+        <v>43062</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -7426,7 +7157,7 @@
           <t>Oberer Buxheimer Weg 60, 87700 Memmingen</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" s="2" t="inlineStr">
         <is>
           <t>SEE972202066491</t>
         </is>
@@ -7462,10 +7193,8 @@
           <t>BHKW-St-Wolf</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>5.7.2016</t>
-        </is>
+      <c r="D144" s="1" t="n">
+        <v>42556</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -7475,7 +7204,7 @@
           <t>Sieboldstraße 11, 81669 München</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G144" s="2" t="inlineStr">
         <is>
           <t>SEE990480747413</t>
         </is>
@@ -7511,10 +7240,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>16.12.2014</t>
-        </is>
+      <c r="D145" s="1" t="n">
+        <v>41989</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -7524,7 +7251,7 @@
           <t>Taxetstraße 5, 85599 Parsdorf</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G145" s="2" t="inlineStr">
         <is>
           <t>SEE952267109692</t>
         </is>
@@ -7560,10 +7287,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>7.2.2013</t>
-        </is>
+      <c r="D146" s="1" t="n">
+        <v>41312</v>
       </c>
       <c r="E146" t="n">
         <v>12</v>
@@ -7573,7 +7298,7 @@
           <t>Bernrieder Straße 10, 94559 Niederwinkling</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G146" s="2" t="inlineStr">
         <is>
           <t>SEE955208769962</t>
         </is>
@@ -7609,10 +7334,8 @@
           <t>BHKW Bad Steben</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>8.12.2011</t>
-        </is>
+      <c r="D147" s="1" t="n">
+        <v>40885</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -7622,7 +7345,7 @@
           <t>Berliner Straße 2, 95138 Bad Steben</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G147" s="2" t="inlineStr">
         <is>
           <t>SEE905017608891</t>
         </is>
@@ -7658,10 +7381,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>1.6.2016</t>
-        </is>
+      <c r="D148" s="1" t="n">
+        <v>42522</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -7671,7 +7392,7 @@
           <t>Günzburger Straße 68, 89340 Leipheim</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G148" s="2" t="inlineStr">
         <is>
           <t>SEE978594279990</t>
         </is>
@@ -7707,10 +7428,8 @@
           <t>BHKW PZ Augsburg WE231105</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>25.11.2016</t>
-        </is>
+      <c r="D149" s="1" t="n">
+        <v>42699</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -7720,7 +7439,7 @@
           <t>Stuttgarter Straße 33, 86154 Augsburg</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" s="2" t="inlineStr">
         <is>
           <t>SEE934463022616</t>
         </is>
@@ -7756,10 +7475,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>21.1.2016</t>
-        </is>
+      <c r="D150" s="1" t="n">
+        <v>42390</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -7769,7 +7486,7 @@
           <t>Badstraße 26 -28, 95138 Bad Steben</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" s="2" t="inlineStr">
         <is>
           <t>SEE953655970115</t>
         </is>
@@ -7805,10 +7522,8 @@
           <t>BHKW Heimatring 42 a</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>20.12.2010</t>
-        </is>
+      <c r="D151" s="1" t="n">
+        <v>40532</v>
       </c>
       <c r="E151" t="n">
         <v>14</v>
@@ -7818,7 +7533,7 @@
           <t>Heimatring 42, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G151" s="2" t="inlineStr">
         <is>
           <t>SEE980711004255</t>
         </is>
@@ -7854,10 +7569,8 @@
           <t>KWK-Anlage</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>28.1.2019</t>
-        </is>
+      <c r="D152" s="1" t="n">
+        <v>43493</v>
       </c>
       <c r="E152" t="n">
         <v>6</v>
@@ -7867,7 +7580,7 @@
           <t>Steinbühl 3, 87463 Dietmannsried</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G152" s="2" t="inlineStr">
         <is>
           <t>SEE950696045963</t>
         </is>
@@ -7903,10 +7616,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1.1.1999</t>
-        </is>
+      <c r="D153" s="1" t="n">
+        <v>36161</v>
       </c>
       <c r="E153" t="n">
         <v>26</v>
@@ -7916,7 +7627,7 @@
           <t>Meckatz 10, 88178 Heimenkirch</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G153" s="2" t="inlineStr">
         <is>
           <t>SEE987207338535</t>
         </is>
@@ -7952,10 +7663,8 @@
           <t>Parkgebäude</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>28.7.2014</t>
-        </is>
+      <c r="D154" s="1" t="n">
+        <v>41848</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -7965,7 +7674,7 @@
           <t>Schloßstraße 1 a, 87763 Lautrach</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="G154" s="2" t="inlineStr">
         <is>
           <t>SEE978254062764</t>
         </is>
@@ -8001,10 +7710,8 @@
           <t>BHKW Geb.15</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>15.1.2014</t>
-        </is>
+      <c r="D155" s="1" t="n">
+        <v>41654</v>
       </c>
       <c r="E155" t="n">
         <v>11</v>
@@ -8014,7 +7721,7 @@
           <t>Kornburger Straße 60, 90469 Nürnberg</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="G155" s="2" t="inlineStr">
         <is>
           <t>SEE944685544537</t>
         </is>
@@ -8050,10 +7757,8 @@
           <t>BHKW-Kläranalge Lichtenfels</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>23.1.2020</t>
-        </is>
+      <c r="D156" s="1" t="n">
+        <v>43853</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -8063,7 +7768,7 @@
           <t>Wöhrdstraße 51, 96215 Lichtenfels</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="G156" s="2" t="inlineStr">
         <is>
           <t>SEE903061731442</t>
         </is>
@@ -8099,10 +7804,8 @@
           <t>BHKW DrBerndlPlatz2</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>28.9.2016</t>
-        </is>
+      <c r="D157" s="1" t="n">
+        <v>42641</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -8112,7 +7815,7 @@
           <t>Dr.-Berndl-Platz 2, 87700 Memmingen</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G157" s="2" t="inlineStr">
         <is>
           <t>SEE903372175850</t>
         </is>
@@ -8148,10 +7851,8 @@
           <t>BHKW AQUAtherm</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>19.4.2012</t>
-        </is>
+      <c r="D158" s="1" t="n">
+        <v>41018</v>
       </c>
       <c r="E158" t="n">
         <v>12</v>
@@ -8161,7 +7862,7 @@
           <t>Wittelsbacherhöhe 50, 94315 Straubing</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="G158" s="2" t="inlineStr">
         <is>
           <t>SEE909996377243</t>
         </is>
@@ -8197,10 +7898,8 @@
           <t>BHKW N2 E22656</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>6.10.2015</t>
-        </is>
+      <c r="D159" s="1" t="n">
+        <v>42283</v>
       </c>
       <c r="E159" t="n">
         <v>9</v>
@@ -8210,7 +7909,7 @@
           <t>Nordostpark 84, 90411 Nürnberg</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="G159" s="2" t="inlineStr">
         <is>
           <t>SEE915108776507</t>
         </is>
@@ -8246,10 +7945,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>21.12.2015</t>
-        </is>
+      <c r="D160" s="1" t="n">
+        <v>42359</v>
       </c>
       <c r="E160" t="n">
         <v>9</v>
@@ -8259,7 +7956,7 @@
           <t>Paracelsusstraße 3, 86441 Zusmarshausen</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="G160" s="2" t="inlineStr">
         <is>
           <t>SEE923888226167</t>
         </is>
@@ -8295,10 +7992,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>3.12.2013</t>
-        </is>
+      <c r="D161" s="1" t="n">
+        <v>41611</v>
       </c>
       <c r="E161" t="n">
         <v>11</v>
@@ -8308,7 +8003,7 @@
           <t>Wittelsbacherhöhe 1, 94315 Straubing</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="G161" s="2" t="inlineStr">
         <is>
           <t>SEE907708479827</t>
         </is>
@@ -8344,10 +8039,8 @@
           <t>BHKW 1 Wäscherei Plattling</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>20.11.2015</t>
-        </is>
+      <c r="D162" s="1" t="n">
+        <v>42328</v>
       </c>
       <c r="E162" t="n">
         <v>9</v>
@@ -8357,7 +8050,7 @@
           <t>Luitpoldstraße 16, 94447 Plattling</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="G162" s="2" t="inlineStr">
         <is>
           <t>SEE922180635806</t>
         </is>
@@ -8393,10 +8086,8 @@
           <t>BHKW 2 Wäscherei Plattling</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>20.11.2015</t>
-        </is>
+      <c r="D163" s="1" t="n">
+        <v>42328</v>
       </c>
       <c r="E163" t="n">
         <v>9</v>
@@ -8406,7 +8097,7 @@
           <t>Luitpoldstraße 16, 94447 Plattling</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G163" s="2" t="inlineStr">
         <is>
           <t>SEE940162973234</t>
         </is>
@@ -8442,10 +8133,8 @@
           <t>Zerzabelshofstr. 29 BHKW 50 kW</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>22.10.2014</t>
-        </is>
+      <c r="D164" s="1" t="n">
+        <v>41934</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -8455,7 +8144,7 @@
           <t>Am Spund 4, 90427 Nürnberg</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G164" s="2" t="inlineStr">
         <is>
           <t>SEE920977527297</t>
         </is>
@@ -8491,10 +8180,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>3.10.2009</t>
-        </is>
+      <c r="D165" s="1" t="n">
+        <v>40089</v>
       </c>
       <c r="E165" t="n">
         <v>15</v>
@@ -8504,7 +8191,7 @@
           <t>Tannenbaum 1, 86825 Bad Wörishofen</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G165" s="2" t="inlineStr">
         <is>
           <t>SEE909052129496</t>
         </is>
@@ -8540,10 +8227,8 @@
           <t>VW Zentrum Passau</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>5.4.2018</t>
-        </is>
+      <c r="D166" s="1" t="n">
+        <v>43195</v>
       </c>
       <c r="E166" t="n">
         <v>6</v>
@@ -8553,7 +8238,7 @@
           <t>Spitalhofstraße 70, 94032 Passau</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G166" s="2" t="inlineStr">
         <is>
           <t>SEE926113272007</t>
         </is>
@@ -8589,10 +8274,8 @@
           <t>BHKW TCK1H2</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>27.3.2019</t>
-        </is>
+      <c r="D167" s="1" t="n">
+        <v>43551</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -8602,7 +8285,7 @@
           <t>Moosacher Straße 80, 80809 München</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G167" s="2" t="inlineStr">
         <is>
           <t>SEE981732999261</t>
         </is>
@@ -8638,10 +8321,8 @@
           <t>BHKW Smartblock 50 (2018)</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2.1.2018</t>
-        </is>
+      <c r="D168" s="1" t="n">
+        <v>43102</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -8651,7 +8332,7 @@
           <t>Neuburger Straße 141, 94036 Passau</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G168" s="2" t="inlineStr">
         <is>
           <t>SEE956643025286</t>
         </is>
@@ -8687,10 +8368,8 @@
           <t>SSG Augsburg</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>17.10.2013</t>
-        </is>
+      <c r="D169" s="1" t="n">
+        <v>41564</v>
       </c>
       <c r="E169" t="n">
         <v>11</v>
@@ -8700,7 +8379,7 @@
           <t>Marconistraße 7, 86179 Augsburg</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G169" s="2" t="inlineStr">
         <is>
           <t>SEE987398818922</t>
         </is>
@@ -8736,10 +8415,8 @@
           <t>BHKW Freibad Schwabmünchen</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>16.5.2019</t>
-        </is>
+      <c r="D170" s="1" t="n">
+        <v>43601</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -8749,7 +8426,7 @@
           <t>Badstraße 21, 86830 Schwabmünchen</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G170" s="2" t="inlineStr">
         <is>
           <t>SEE957375200446</t>
         </is>
@@ -8785,10 +8462,8 @@
           <t>BHKW 3 Kleintettau</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>6.2.2008</t>
-        </is>
+      <c r="D171" s="1" t="n">
+        <v>39484</v>
       </c>
       <c r="E171" t="n">
         <v>17</v>
@@ -8798,7 +8473,7 @@
           <t>Glashüttenplatz 3, 96355 Tettau</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G171" s="2" t="inlineStr">
         <is>
           <t>SEE950343004831</t>
         </is>
@@ -8834,10 +8509,8 @@
           <t>Blockheizkraftwerk SJZ</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>10.12.2015</t>
-        </is>
+      <c r="D172" s="1" t="n">
+        <v>42348</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -8847,7 +8520,7 @@
           <t>Gögginger Straße 101, 86199 Augsburg</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G172" s="2" t="inlineStr">
         <is>
           <t>SEE908794413870</t>
         </is>
@@ -8883,10 +8556,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>29.4.2019</t>
-        </is>
+      <c r="D173" s="1" t="n">
+        <v>43584</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -8896,7 +8567,7 @@
           <t>Am Isarkanal 24, 81379 München</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="G173" s="2" t="inlineStr">
         <is>
           <t>SEE980795700555</t>
         </is>
@@ -8932,10 +8603,8 @@
           <t>BHKW 5 BPE</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>21.12.2017</t>
-        </is>
+      <c r="D174" s="1" t="n">
+        <v>43090</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -8945,7 +8614,7 @@
           <t>Am Baggersee 2, 87674 Ruderatshofen</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G174" s="2" t="inlineStr">
         <is>
           <t>SEE913271982459</t>
         </is>
@@ -8981,10 +8650,8 @@
           <t>BHKW 2011</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>11.1.2011</t>
-        </is>
+      <c r="D175" s="1" t="n">
+        <v>40554</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
@@ -8994,7 +8661,7 @@
           <t>Schleswiger Straße 101, 90427 Nürnberg</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G175" s="2" t="inlineStr">
         <is>
           <t>SEE924559749503</t>
         </is>
@@ -9030,10 +8697,8 @@
           <t>ABR944063378501</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>20.10.2010</t>
-        </is>
+      <c r="D176" s="1" t="n">
+        <v>40471</v>
       </c>
       <c r="E176" t="n">
         <v>14</v>
@@ -9043,7 +8708,7 @@
           <t>Wirthstraße 51, 95028 Hof</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G176" s="2" t="inlineStr">
         <is>
           <t>SEE928721656088</t>
         </is>
@@ -9079,10 +8744,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>17.7.2014</t>
-        </is>
+      <c r="D177" s="1" t="n">
+        <v>41837</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -9092,7 +8755,7 @@
           <t>Krankenhausstraße 6, 84066 Mallersdorf-Pfaffenberg</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G177" s="2" t="inlineStr">
         <is>
           <t>SEE956736486192</t>
         </is>
@@ -9128,10 +8791,8 @@
           <t>Martha-Maria München 1</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>16.12.2013</t>
-        </is>
+      <c r="D178" s="1" t="n">
+        <v>41624</v>
       </c>
       <c r="E178" t="n">
         <v>11</v>
@@ -9141,7 +8802,7 @@
           <t>Wolfratshauser Straße 109, 81479 München</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G178" s="2" t="inlineStr">
         <is>
           <t>SEE997522763615</t>
         </is>
@@ -9177,10 +8838,8 @@
           <t>BHKW Lear</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>18.7.2016</t>
-        </is>
+      <c r="D179" s="1" t="n">
+        <v>42569</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -9190,7 +8849,7 @@
           <t>Industriestraße 48, 96317 Kronach</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="G179" s="2" t="inlineStr">
         <is>
           <t>SEE987882045407</t>
         </is>
@@ -9226,10 +8885,8 @@
           <t>WA Coburg</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>1.12.2009</t>
-        </is>
+      <c r="D180" s="1" t="n">
+        <v>40148</v>
       </c>
       <c r="E180" t="n">
         <v>15</v>
@@ -9239,7 +8896,7 @@
           <t>Thüringer Straße 4a, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="G180" s="2" t="inlineStr">
         <is>
           <t>SEE971131988812</t>
         </is>
@@ -9275,10 +8932,8 @@
           <t>BHKW - Krankenhausstr. 11 b</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>27.7.2018</t>
-        </is>
+      <c r="D181" s="1" t="n">
+        <v>43308</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -9288,7 +8943,7 @@
           <t>Krankenhausstraße 11 b, 86551 Aichach</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="G181" s="2" t="inlineStr">
         <is>
           <t>SEE984743450943</t>
         </is>
@@ -9324,10 +8979,8 @@
           <t>BHKW Vitoblock</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>29.7.2014</t>
-        </is>
+      <c r="D182" s="1" t="n">
+        <v>41849</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -9337,7 +8990,7 @@
           <t>Kükenthalstraße 19, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G182" s="2" t="inlineStr">
         <is>
           <t>SEE989970000978</t>
         </is>
@@ -9373,10 +9026,8 @@
           <t>BHKW XS Saliterstr.</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>3.11.2016</t>
-        </is>
+      <c r="D183" s="1" t="n">
+        <v>42677</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -9386,7 +9037,7 @@
           <t>Saliterstraße 47, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G183" s="2" t="inlineStr">
         <is>
           <t>SEE901323460369</t>
         </is>
@@ -9422,10 +9073,8 @@
           <t>BT Nyloplast GmbH</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>5.1.2015</t>
-        </is>
+      <c r="D184" s="1" t="n">
+        <v>42009</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -9435,7 +9084,7 @@
           <t>Oberbernbacher Weg 24, 86551 Aichach</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G184" s="2" t="inlineStr">
         <is>
           <t>SEE944748502337</t>
         </is>
@@ -9471,10 +9120,8 @@
           <t>GAS-BHKW ESS - Ottobeuren</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>21.12.2015</t>
-        </is>
+      <c r="D185" s="1" t="n">
+        <v>42359</v>
       </c>
       <c r="E185" t="n">
         <v>9</v>
@@ -9484,7 +9131,7 @@
           <t>Spitalstraße 2, 87724 Ottobeuren</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="G185" s="2" t="inlineStr">
         <is>
           <t>SEE974306013593</t>
         </is>
@@ -9520,10 +9167,8 @@
           <t>Heizwerk Breitenbrunn</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>16.5.2011</t>
-        </is>
+      <c r="D186" s="1" t="n">
+        <v>40679</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -9533,7 +9178,7 @@
           <t>Am Luxbach 18, 95632 Wunsiedel</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="G186" s="2" t="inlineStr">
         <is>
           <t>SEE927397183270</t>
         </is>
@@ -9569,10 +9214,8 @@
           <t>Kläranlage Wun KWK</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>28.2.2014</t>
-        </is>
+      <c r="D187" s="1" t="n">
+        <v>41698</v>
       </c>
       <c r="E187" t="n">
         <v>11</v>
@@ -9582,7 +9225,7 @@
           <t>Wintersreuther Straße 4, 95632 Wunsiedel</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="G187" s="2" t="inlineStr">
         <is>
           <t>SEE917508501253</t>
         </is>
@@ -9618,10 +9261,8 @@
           <t>BHKW N</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>5.5.2011</t>
-        </is>
+      <c r="D188" s="1" t="n">
+        <v>40668</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -9631,7 +9272,7 @@
           <t>Hofer Straße 45, 95119 Naila</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="G188" s="2" t="inlineStr">
         <is>
           <t>SEE962322791380</t>
         </is>
@@ -9667,10 +9308,8 @@
           <t>BHKW V. BPA Königsbrunn</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>22.9.2016</t>
-        </is>
+      <c r="D189" s="1" t="n">
+        <v>42635</v>
       </c>
       <c r="E189" t="n">
         <v>8</v>
@@ -9680,7 +9319,7 @@
           <t>Föllstraße 24, 86343 Königsbrunn</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="G189" s="2" t="inlineStr">
         <is>
           <t>SEE929779792186</t>
         </is>
@@ -9716,10 +9355,8 @@
           <t>BHKW 140 KW FÜH</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>23.7.2014</t>
-        </is>
+      <c r="D190" s="1" t="n">
+        <v>41843</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -9729,7 +9366,7 @@
           <t>Thermalbadstraße 28, 94086 Bad Griesbach</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="G190" s="2" t="inlineStr">
         <is>
           <t>SEE936250696680</t>
         </is>
@@ -9765,10 +9402,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>1.4.2010</t>
-        </is>
+      <c r="D191" s="1" t="n">
+        <v>40269</v>
       </c>
       <c r="E191" t="n">
         <v>14</v>
@@ -9778,7 +9413,7 @@
           <t>Regens-Wagner-Platz 2, 96224 Burgkunstadt</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G191" s="2" t="inlineStr">
         <is>
           <t>SEE943660680550</t>
         </is>
@@ -9814,10 +9449,8 @@
           <t>BHKW MOD</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>9.8.2018</t>
-        </is>
+      <c r="D192" s="1" t="n">
+        <v>43321</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -9827,7 +9460,7 @@
           <t>Schongauer Straße 48, 87616 Marktoberdorf</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G192" s="2" t="inlineStr">
         <is>
           <t>SEE930547192824</t>
         </is>
@@ -9863,10 +9496,8 @@
           <t>Berwanger Hof Kraftwerk</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>28.7.2011</t>
-        </is>
+      <c r="D193" s="1" t="n">
+        <v>40752</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -9876,7 +9507,7 @@
           <t>Niederdorf 11, 87538 Obermaiselstein</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="G193" s="2" t="inlineStr">
         <is>
           <t>SEE914012198245</t>
         </is>
@@ -9912,10 +9543,8 @@
           <t>2H BHKW</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>26.11.2015</t>
-        </is>
+      <c r="D194" s="1" t="n">
+        <v>42334</v>
       </c>
       <c r="E194" t="n">
         <v>9</v>
@@ -9925,7 +9554,7 @@
           <t>Dieselstraße 24, 85748 Garching</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="G194" s="2" t="inlineStr">
         <is>
           <t>SEE920061761521</t>
         </is>
@@ -9961,10 +9590,8 @@
           <t>BHKW - 1114-BT-00034</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>19.3.2015</t>
-        </is>
+      <c r="D195" s="1" t="n">
+        <v>42082</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -9974,7 +9601,7 @@
           <t>Friesener Straße 41, 96317 Kronach</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="G195" s="2" t="inlineStr">
         <is>
           <t>SEE949951491669</t>
         </is>
@@ -10010,10 +9637,8 @@
           <t>Berufsschule 4/14 Schönweißstraße</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>1.1.2009</t>
-        </is>
+      <c r="D196" s="1" t="n">
+        <v>39814</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -10023,7 +9648,7 @@
           <t>Kleestraße 2, 90461 Nürnberg</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="G196" s="2" t="inlineStr">
         <is>
           <t>SEE961802680282</t>
         </is>
@@ -10059,10 +9684,8 @@
           <t>Tiergarten Delphinlagune/Manatihaus</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>12.5.2011</t>
-        </is>
+      <c r="D197" s="1" t="n">
+        <v>40675</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -10072,7 +9695,7 @@
           <t>Am Tiergarten 42, 90480 Nürnberg</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="G197" s="2" t="inlineStr">
         <is>
           <t>SEE903656311578</t>
         </is>
@@ -10108,10 +9731,8 @@
           <t>RFZ_PA_BHKW</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>15.12.2015</t>
-        </is>
+      <c r="D198" s="1" t="n">
+        <v>42353</v>
       </c>
       <c r="E198" t="n">
         <v>9</v>
@@ -10121,7 +9742,7 @@
           <t>Kohlbruck 5, 94036 Passau</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="G198" s="2" t="inlineStr">
         <is>
           <t>SEE928873702688</t>
         </is>
@@ -10157,10 +9778,8 @@
           <t>WVS HZ KöBr BHKW2</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>1.3.2011</t>
-        </is>
+      <c r="D199" s="1" t="n">
+        <v>40603</v>
       </c>
       <c r="E199" t="n">
         <v>14</v>
@@ -10170,7 +9789,7 @@
           <t>St.-Ulrich-Straße 17, 86343 Königsbrunn</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="G199" s="2" t="inlineStr">
         <is>
           <t>SEE947018897485</t>
         </is>
@@ -10206,10 +9825,8 @@
           <t>BHKW 140 KW Ludwig</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>12.3.2014</t>
-        </is>
+      <c r="D200" s="1" t="n">
+        <v>41710</v>
       </c>
       <c r="E200" t="n">
         <v>11</v>
@@ -10219,7 +9836,7 @@
           <t>Am Kurwald 2, 94086 Bad Griesbach</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="G200" s="2" t="inlineStr">
         <is>
           <t>SEE912165160775</t>
         </is>
@@ -10255,10 +9872,8 @@
           <t>BHKW 140 KW MAX</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>11.3.2014</t>
-        </is>
+      <c r="D201" s="1" t="n">
+        <v>41709</v>
       </c>
       <c r="E201" t="n">
         <v>11</v>
@@ -10268,7 +9883,7 @@
           <t>Kurallee 1, 94086 Bad Griesbach</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G201" s="2" t="inlineStr">
         <is>
           <t>SEE908417462261</t>
         </is>
@@ -10304,10 +9919,8 @@
           <t>BHKW Vitobloc 200 EM</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>1.3.2011</t>
-        </is>
+      <c r="D202" s="1" t="n">
+        <v>40603</v>
       </c>
       <c r="E202" t="n">
         <v>14</v>
@@ -10317,7 +9930,7 @@
           <t>Fröbelstraße 4, 95030 Hof</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="G202" s="2" t="inlineStr">
         <is>
           <t>SEE916580935970</t>
         </is>
@@ -10353,10 +9966,8 @@
           <t>BHKW Bahnhofsplatz (BP)</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>15.6.2009</t>
-        </is>
+      <c r="D203" s="1" t="n">
+        <v>39979</v>
       </c>
       <c r="E203" t="n">
         <v>15</v>
@@ -10366,7 +9977,7 @@
           <t>Bahnhofsplatz 1, 96450 Coburg</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G203" s="2" t="inlineStr">
         <is>
           <t>SEE995639882588</t>
         </is>
@@ -10402,10 +10013,8 @@
           <t>ABR916896670152</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>30.5.2006</t>
-        </is>
+      <c r="D204" s="1" t="n">
+        <v>38867</v>
       </c>
       <c r="E204" t="n">
         <v>18</v>
@@ -10415,7 +10024,7 @@
           <t>Edelsbergweg 71, 87459 Pfronten</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G204" s="2" t="inlineStr">
         <is>
           <t>SEE989609660016</t>
         </is>
@@ -10451,10 +10060,8 @@
           <t>Blockheizkraftwerk Klinik Krumbach</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>29.6.2016</t>
-        </is>
+      <c r="D205" s="1" t="n">
+        <v>42550</v>
       </c>
       <c r="E205" t="n">
         <v>8</v>
@@ -10464,7 +10071,7 @@
           <t>Mindelheimer Straße 69, 86381 Krumbach</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G205" s="2" t="inlineStr">
         <is>
           <t>SEE900971100085</t>
         </is>
@@ -10500,10 +10107,8 @@
           <t>BHKW Hotel Sonnenhof</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>10.12.2013</t>
-        </is>
+      <c r="D206" s="1" t="n">
+        <v>41618</v>
       </c>
       <c r="E206" t="n">
         <v>11</v>
@@ -10513,7 +10118,7 @@
           <t>Hermann-Aust-Straße 11, 86825 Bad Wörishofen</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="G206" s="2" t="inlineStr">
         <is>
           <t>SEE967871426349</t>
         </is>
@@ -10549,10 +10154,8 @@
           <t>BHKW Hallenbad</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>6.11.2014</t>
-        </is>
+      <c r="D207" s="1" t="n">
+        <v>41949</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -10562,7 +10165,7 @@
           <t>Schulstraße 2, 95615 Marktredwitz</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="G207" s="2" t="inlineStr">
         <is>
           <t>SEE956092187900</t>
         </is>
@@ -10598,10 +10201,8 @@
           <t>Bayer. Staatsbad Bad Steben BHKW113 kW</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>17.12.2015</t>
-        </is>
+      <c r="D208" s="1" t="n">
+        <v>42355</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -10611,7 +10212,7 @@
           <t>Badstraße 31, 95138 Bad Steben</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G208" s="2" t="inlineStr">
         <is>
           <t>SEE995962832953</t>
         </is>
@@ -10647,10 +10248,8 @@
           <t>BHKW Eisenschmelze</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>22.12.2016</t>
-        </is>
+      <c r="D209" s="1" t="n">
+        <v>42726</v>
       </c>
       <c r="E209" t="n">
         <v>8</v>
@@ -10660,7 +10259,7 @@
           <t>An der Eisenschmelze 47, 87527 Sonthofen</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G209" s="2" t="inlineStr">
         <is>
           <t>SEE977367089408</t>
         </is>
@@ -10696,10 +10295,8 @@
           <t>BHKW Halle 7</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>8.9.2011</t>
-        </is>
+      <c r="D210" s="1" t="n">
+        <v>40794</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -10709,7 +10306,7 @@
           <t>Kollbacher Straße 31, 84163 Marklkofen</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G210" s="2" t="inlineStr">
         <is>
           <t>SEE949418732779</t>
         </is>
@@ -10745,10 +10342,8 @@
           <t>BHKW Sana Klinikum Hof</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>24.5.2017</t>
-        </is>
+      <c r="D211" s="1" t="n">
+        <v>42879</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -10758,7 +10353,7 @@
           <t>Eppenreuther Straße 9, 95032 Hof</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="G211" s="2" t="inlineStr">
         <is>
           <t>SEE952457396826</t>
         </is>
@@ -10794,10 +10389,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>1.1.2003</t>
-        </is>
+      <c r="D212" s="1" t="n">
+        <v>37622</v>
       </c>
       <c r="E212" t="n">
         <v>22</v>
@@ -10807,7 +10400,7 @@
           <t>Dasinger Straße 11, 86165 Augsburg</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G212" s="2" t="inlineStr">
         <is>
           <t>SEE926421476791</t>
         </is>
@@ -10843,10 +10436,8 @@
           <t>Helios Amper-Klinikum Dachau</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>22.7.2014</t>
-        </is>
+      <c r="D213" s="1" t="n">
+        <v>41842</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -10856,7 +10447,7 @@
           <t>Krankenhausstraße 15, 85221 Dachau</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="G213" s="2" t="inlineStr">
         <is>
           <t>SEE968900013936</t>
         </is>
@@ -10892,10 +10483,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>4.12.2015</t>
-        </is>
+      <c r="D214" s="1" t="n">
+        <v>42342</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -10905,7 +10494,7 @@
           <t>Im Gewerbepark Unterallgäu 2, 87754 Kammlach</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G214" s="2" t="inlineStr">
         <is>
           <t>SEE974454092082</t>
         </is>
@@ -10941,10 +10530,8 @@
           <t>BHKW- Parkstr. 3</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>14.2.2017</t>
-        </is>
+      <c r="D215" s="1" t="n">
+        <v>42780</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -10954,7 +10541,7 @@
           <t>nan nan, 86399 Bobingen</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G215" s="2" t="inlineStr">
         <is>
           <t>SEE979144032256</t>
         </is>
@@ -10990,10 +10577,8 @@
           <t>AWO Neustadt b. Coburg</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>20.10.2015</t>
-        </is>
+      <c r="D216" s="1" t="n">
+        <v>42297</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -11003,7 +10588,7 @@
           <t>Sonneberger Straße 27, 96465 Neustadt</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G216" s="2" t="inlineStr">
         <is>
           <t>SEE948296351898</t>
         </is>
@@ -11039,10 +10624,8 @@
           <t>AWO Rödental</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>4.7.2014</t>
-        </is>
+      <c r="D217" s="1" t="n">
+        <v>41824</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -11052,7 +10635,7 @@
           <t>Bürgermeister-F.-Fischer-Straße 3, 96472 Rödental</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G217" s="2" t="inlineStr">
         <is>
           <t>SEE932299337645</t>
         </is>
@@ -11088,10 +10671,8 @@
           <t>BHKW GutenbergUH</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>21.12.2016</t>
-        </is>
+      <c r="D218" s="1" t="n">
+        <v>42725</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -11101,7 +10682,7 @@
           <t>Gutenbergstraße 12, 87781 Ungerhausen</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G218" s="2" t="inlineStr">
         <is>
           <t>SEE913437990564</t>
         </is>
@@ -11137,10 +10718,8 @@
           <t>BHKW Klinik Oberstdorf</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>29.4.2010</t>
-        </is>
+      <c r="D219" s="1" t="n">
+        <v>40297</v>
       </c>
       <c r="E219" t="n">
         <v>14</v>
@@ -11150,7 +10729,7 @@
           <t>Trettachstraße 16, 87561 Oberstdorf</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G219" s="2" t="inlineStr">
         <is>
           <t>SEE938919224272</t>
         </is>
@@ -11186,10 +10765,8 @@
           <t>BHKW München</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>13.1.2014</t>
-        </is>
+      <c r="D220" s="1" t="n">
+        <v>41652</v>
       </c>
       <c r="E220" t="n">
         <v>11</v>
@@ -11199,7 +10776,7 @@
           <t>Goteboldstraße 9, 81247 München</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G220" s="2" t="inlineStr">
         <is>
           <t>SEE983437840190</t>
         </is>
@@ -11235,10 +10812,8 @@
           <t>KWKLCM</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>14.12.2016</t>
-        </is>
+      <c r="D221" s="1" t="n">
+        <v>42718</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
@@ -11248,7 +10823,7 @@
           <t>Allgäuer Straße 17, 87719 Mindelheim</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="G221" s="2" t="inlineStr">
         <is>
           <t>SEE956343396983</t>
         </is>
@@ -11284,10 +10859,8 @@
           <t>BHKW-RaR-2013</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>24.10.2013</t>
-        </is>
+      <c r="D222" s="1" t="n">
+        <v>41571</v>
       </c>
       <c r="E222" t="n">
         <v>11</v>
@@ -11297,7 +10870,7 @@
           <t>Geheimrat-Rosenthal-Straße 71, 95100 Selb</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="G222" s="2" t="inlineStr">
         <is>
           <t>SEE948236036809</t>
         </is>
@@ -11333,10 +10906,8 @@
           <t>BHKW-Ottobrunn</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>13.6.2014</t>
-        </is>
+      <c r="D223" s="1" t="n">
+        <v>41803</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -11346,7 +10917,7 @@
           <t>Rubensstraße 6, 85521 Ottobrunn</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="G223" s="2" t="inlineStr">
         <is>
           <t>SEE931996376827</t>
         </is>
@@ -11382,10 +10953,8 @@
           <t>BHKW Akelei</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>7.10.2010</t>
-        </is>
+      <c r="D224" s="1" t="n">
+        <v>40458</v>
       </c>
       <c r="E224" t="n">
         <v>14</v>
@@ -11395,7 +10964,7 @@
           <t>Kreuzweg 7, 87645 Schwangau</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="G224" s="2" t="inlineStr">
         <is>
           <t>SEE933738955819</t>
         </is>
@@ -11431,10 +11000,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>20.3.2018</t>
-        </is>
+      <c r="D225" s="1" t="n">
+        <v>43179</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -11444,7 +11011,7 @@
           <t>Zeppelinstraße 5, 85570 Markt Schwaben</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="G225" s="2" t="inlineStr">
         <is>
           <t>SEE930910068725</t>
         </is>
@@ -11480,10 +11047,8 @@
           <t>BHKW NW</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>30.7.2014</t>
-        </is>
+      <c r="D226" s="1" t="n">
+        <v>41850</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -11493,7 +11058,7 @@
           <t>Bernrieder Straße 15, 94559 Niederwinkling</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="G226" s="2" t="inlineStr">
         <is>
           <t>SEE979929079537</t>
         </is>
@@ -11529,10 +11094,8 @@
           <t>KWK Altenheim 2013</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>17.9.2013</t>
-        </is>
+      <c r="D227" s="1" t="n">
+        <v>41534</v>
       </c>
       <c r="E227" t="n">
         <v>11</v>
@@ -11542,7 +11105,7 @@
           <t>St.-Hildegard-Weg 2, 87700 Memmingen</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="G227" s="2" t="inlineStr">
         <is>
           <t>SEE930972727028</t>
         </is>
@@ -11578,10 +11141,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>25.11.2016</t>
-        </is>
+      <c r="D228" s="1" t="n">
+        <v>42699</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -11591,7 +11152,7 @@
           <t>Bauhofstraße 6, 84130 Dingolfing</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
+      <c r="G228" s="2" t="inlineStr">
         <is>
           <t>SEE907882630137</t>
         </is>
@@ -11627,10 +11188,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>4.12.2017</t>
-        </is>
+      <c r="D229" s="1" t="n">
+        <v>43073</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -11640,7 +11199,7 @@
           <t>Bauhofstraße 6, 84130 Dingolfing</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="G229" s="2" t="inlineStr">
         <is>
           <t>SEE993181216561</t>
         </is>
@@ -11676,10 +11235,8 @@
           <t>BHKW Am Hafen</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>10.7.1999</t>
-        </is>
+      <c r="D230" s="1" t="n">
+        <v>36351</v>
       </c>
       <c r="E230" t="n">
         <v>25</v>
@@ -11689,7 +11246,7 @@
           <t>Am Hafen 1, 94130 Obernzell</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G230" s="2" t="inlineStr">
         <is>
           <t>SEE956653412663</t>
         </is>
@@ -11725,10 +11282,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>20.1.2016</t>
-        </is>
+      <c r="D231" s="1" t="n">
+        <v>42389</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -11738,7 +11293,7 @@
           <t>Äußere Passauer Straße 60, 94315 Straubing</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="G231" s="2" t="inlineStr">
         <is>
           <t>SEE966376325836</t>
         </is>
@@ -11774,10 +11329,8 @@
           <t>KWK Anlage Bau7</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>23.1.2017</t>
-        </is>
+      <c r="D232" s="1" t="n">
+        <v>42758</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -11787,7 +11340,7 @@
           <t>Königbacher Straße 15, 94496 Ortenburg</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="G232" s="2" t="inlineStr">
         <is>
           <t>SEE979912872350</t>
         </is>
@@ -11823,10 +11376,8 @@
           <t>M.</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>22.7.2014</t>
-        </is>
+      <c r="D233" s="1" t="n">
+        <v>41842</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -11836,7 +11387,7 @@
           <t>Klugstraße 144, 80637 München</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G233" s="2" t="inlineStr">
         <is>
           <t>SEE939751782821</t>
         </is>
@@ -11872,10 +11423,8 @@
           <t>BHKW_HZ (G/BS)</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>7.1.2020</t>
-        </is>
+      <c r="D234" s="1" t="n">
+        <v>43837</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -11885,7 +11434,7 @@
           <t>nan nan, 96317 Kronach</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G234" s="2" t="inlineStr">
         <is>
           <t>SEE988566864611</t>
         </is>
@@ -11921,10 +11470,8 @@
           <t>BHKW Hallenbad</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>16.11.2017</t>
-        </is>
+      <c r="D235" s="1" t="n">
+        <v>43055</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -11934,7 +11481,7 @@
           <t>Allgäuer Straße 15, 87509 Immenstadt</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="G235" s="2" t="inlineStr">
         <is>
           <t>SEE952311863952</t>
         </is>
@@ -11970,10 +11517,8 @@
           <t>BHKW 1</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>1.1.1999</t>
-        </is>
+      <c r="D236" s="1" t="n">
+        <v>36161</v>
       </c>
       <c r="E236" t="n">
         <v>26</v>
@@ -11983,7 +11528,7 @@
           <t>Falterhaid 52a, 94436 Simbach</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="G236" s="2" t="inlineStr">
         <is>
           <t>SEE937123884944</t>
         </is>
@@ -12019,10 +11564,8 @@
           <t>BHKW Neu-Ulm</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>19.12.2016</t>
-        </is>
+      <c r="D237" s="1" t="n">
+        <v>42723</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -12032,7 +11575,7 @@
           <t>Borsigstraße 15, 89231 Neu-Ulm</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G237" s="2" t="inlineStr">
         <is>
           <t>SEE904259920198</t>
         </is>
@@ -12068,10 +11611,8 @@
           <t>BHKW 2</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>1.1.1999</t>
-        </is>
+      <c r="D238" s="1" t="n">
+        <v>36161</v>
       </c>
       <c r="E238" t="n">
         <v>26</v>
@@ -12081,7 +11622,7 @@
           <t>Falterhaid 52 a, 94436 Simbach</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G238" s="2" t="inlineStr">
         <is>
           <t>SEE981990775096</t>
         </is>
@@ -12117,10 +11658,8 @@
           <t>Landratsamt GZ BHKW</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>14.3.2012</t>
-        </is>
+      <c r="D239" s="1" t="n">
+        <v>40982</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -12130,7 +11669,7 @@
           <t>An der Kapuzinermauer 1, 89312 Günzburg</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G239" s="2" t="inlineStr">
         <is>
           <t>SEE963530951221</t>
         </is>
@@ -12166,10 +11705,8 @@
           <t>BHKW 2</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>22.7.2014</t>
-        </is>
+      <c r="D240" s="1" t="n">
+        <v>41842</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -12179,7 +11716,7 @@
           <t>Krankenhausstraße 15, 85221 Dachau</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G240" s="2" t="inlineStr">
         <is>
           <t>SEE917689644183</t>
         </is>
@@ -12215,10 +11752,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>29.10.2015</t>
-        </is>
+      <c r="D241" s="1" t="n">
+        <v>42306</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -12228,7 +11763,7 @@
           <t>Wasachstraße 41, 87561 Oberstdorf</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="G241" s="2" t="inlineStr">
         <is>
           <t>SEE965261746503</t>
         </is>
@@ -12264,10 +11799,8 @@
           <t>BHKW Fraunhoferstraße 10 Keller</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>1.1.2014</t>
-        </is>
+      <c r="D242" s="1" t="n">
+        <v>41640</v>
       </c>
       <c r="E242" t="n">
         <v>11</v>
@@ -12277,7 +11810,7 @@
           <t>Fraunhoferstraße 10, 90409 Nürnberg</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G242" s="2" t="inlineStr">
         <is>
           <t>SEE972981462705</t>
         </is>
@@ -12313,10 +11846,8 @@
           <t>Modul2362</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>31.7.2014</t>
-        </is>
+      <c r="D243" s="1" t="n">
+        <v>41851</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -12326,7 +11857,7 @@
           <t>Egerländer Straße 14, 86316 Friedberg</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="G243" s="2" t="inlineStr">
         <is>
           <t>SEE935978115725</t>
         </is>
@@ -12362,10 +11893,8 @@
           <t>Blockheizkraftwerk</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>30.11.2017</t>
-        </is>
+      <c r="D244" s="1" t="n">
+        <v>43069</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -12375,7 +11904,7 @@
           <t>Am Hammerweiher 3, 88175 Scheidegg</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="G244" s="2" t="inlineStr">
         <is>
           <t>SEE924999391669</t>
         </is>
@@ -12411,10 +11940,8 @@
           <t>Blockheizkraftwerk</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>22.5.2013</t>
-        </is>
+      <c r="D245" s="1" t="n">
+        <v>41416</v>
       </c>
       <c r="E245" t="n">
         <v>11</v>
@@ -12424,7 +11951,7 @@
           <t>Kösseinestraße 3, 95032 Hof</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="G245" s="2" t="inlineStr">
         <is>
           <t>SEE959366752705</t>
         </is>
@@ -12460,10 +11987,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>1.1.2012</t>
-        </is>
+      <c r="D246" s="1" t="n">
+        <v>40909</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -12473,7 +11998,7 @@
           <t>Günzburger Straße 41, 89264 Weißenhorn</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="G246" s="2" t="inlineStr">
         <is>
           <t>SEE934803451236</t>
         </is>
@@ -12509,10 +12034,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>6.12.2013</t>
-        </is>
+      <c r="D247" s="1" t="n">
+        <v>41614</v>
       </c>
       <c r="E247" t="n">
         <v>11</v>
@@ -12522,7 +12045,7 @@
           <t>Münchener Straße 21, 85653 Aying</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G247" s="2" t="inlineStr">
         <is>
           <t>SEE974621801608</t>
         </is>
@@ -12558,10 +12081,8 @@
           <t>4002191195 - BHKW-Kläranlage</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>30.7.2014</t>
-        </is>
+      <c r="D248" s="1" t="n">
+        <v>41850</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -12571,7 +12092,7 @@
           <t>Rappenwörthstraße 14, 89362 Offingen</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
+      <c r="G248" s="2" t="inlineStr">
         <is>
           <t>SEE951065359254</t>
         </is>
@@ -12607,10 +12128,8 @@
           <t>BHKW Rathaus</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>18.12.2018</t>
-        </is>
+      <c r="D249" s="1" t="n">
+        <v>43452</v>
       </c>
       <c r="E249" t="n">
         <v>6</v>
@@ -12620,7 +12139,7 @@
           <t>Pasinger Straße 8, 82152 Planegg</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
+      <c r="G249" s="2" t="inlineStr">
         <is>
           <t>SEE980449546393</t>
         </is>
@@ -12656,10 +12175,8 @@
           <t>BHKW / IVV / FS</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>6.12.2010</t>
-        </is>
+      <c r="D250" s="1" t="n">
+        <v>40518</v>
       </c>
       <c r="E250" t="n">
         <v>14</v>
@@ -12669,7 +12186,7 @@
           <t>Giggenhauser Straße 35, 85354 Freising</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
+      <c r="G250" s="2" t="inlineStr">
         <is>
           <t>SEE988922295738</t>
         </is>
@@ -12705,10 +12222,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>26.5.2014</t>
-        </is>
+      <c r="D251" s="1" t="n">
+        <v>41785</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -12718,7 +12233,7 @@
           <t>Friesener Straße 57, 96317 Kronach</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="G251" s="2" t="inlineStr">
         <is>
           <t>SEE956274569555</t>
         </is>
@@ -12754,10 +12269,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>6.12.2018</t>
-        </is>
+      <c r="D252" s="1" t="n">
+        <v>43440</v>
       </c>
       <c r="E252" t="n">
         <v>6</v>
@@ -12767,7 +12280,7 @@
           <t>Willis 8, 87534 Oberstaufen</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="G252" s="2" t="inlineStr">
         <is>
           <t>SEE989013880802</t>
         </is>
@@ -12803,10 +12316,8 @@
           <t>WVS HZ KöBr BHKW1neu</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>7.9.2009</t>
-        </is>
+      <c r="D253" s="1" t="n">
+        <v>40063</v>
       </c>
       <c r="E253" t="n">
         <v>15</v>
@@ -12816,7 +12327,7 @@
           <t>St.-Ulrich-Straße 17, 86343 Königsbrunn</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="G253" s="2" t="inlineStr">
         <is>
           <t>SEE952596110611</t>
         </is>
@@ -12852,10 +12363,8 @@
           <t>BHKW ODH</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>23.10.2013</t>
-        </is>
+      <c r="D254" s="1" t="n">
+        <v>41570</v>
       </c>
       <c r="E254" t="n">
         <v>11</v>
@@ -12865,7 +12374,7 @@
           <t>Oskar-von-Miller-Straße 6, 85235 Odelzhausen</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
+      <c r="G254" s="2" t="inlineStr">
         <is>
           <t>SEE990602300380</t>
         </is>
@@ -12901,10 +12410,8 @@
           <t>BHKW_UKMP</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>1.2.2016</t>
-        </is>
+      <c r="D255" s="1" t="n">
+        <v>42401</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -12914,7 +12421,7 @@
           <t>Germeringer Straße 32, 82152 Planegg</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="G255" s="2" t="inlineStr">
         <is>
           <t>SEE972445797428</t>
         </is>
@@ -12950,10 +12457,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>26.2.2014</t>
-        </is>
+      <c r="D256" s="1" t="n">
+        <v>41696</v>
       </c>
       <c r="E256" t="n">
         <v>11</v>
@@ -12963,7 +12468,7 @@
           <t>Anzinger Straße 13, 81671 München</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G256" s="2" t="inlineStr">
         <is>
           <t>SEE929697504311</t>
         </is>
@@ -12999,10 +12504,8 @@
           <t>Bergsonstraße 109, 81245 München, Berufsbildungszentrum</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>1.12.2006</t>
-        </is>
+      <c r="D257" s="1" t="n">
+        <v>39052</v>
       </c>
       <c r="E257" t="n">
         <v>18</v>
@@ -13012,7 +12515,7 @@
           <t>Bergsonstraße 109, 81245 München</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="G257" s="2" t="inlineStr">
         <is>
           <t>SEE911077343122</t>
         </is>
@@ -13048,10 +12551,8 @@
           <t>BKR_KWK50_2016</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>12.5.2016</t>
-        </is>
+      <c r="D258" s="1" t="n">
+        <v>42502</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -13061,7 +12562,7 @@
           <t>Fohrenreuther Straße 48, 95111 Rehau</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
+      <c r="G258" s="2" t="inlineStr">
         <is>
           <t>SEE947823335950</t>
         </is>
@@ -13097,10 +12598,8 @@
           <t>BHKW 1</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>1.4.2009</t>
-        </is>
+      <c r="D259" s="1" t="n">
+        <v>39904</v>
       </c>
       <c r="E259" t="n">
         <v>15</v>
@@ -13110,7 +12609,7 @@
           <t>Industriestraße 4, 94491 Hengersberg</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
+      <c r="G259" s="2" t="inlineStr">
         <is>
           <t>SEE941230334018</t>
         </is>
@@ -13146,10 +12645,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>23.5.2014</t>
-        </is>
+      <c r="D260" s="1" t="n">
+        <v>41782</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -13159,7 +12656,7 @@
           <t>Hauptstraße 58, 86405 Meitingen</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
+      <c r="G260" s="2" t="inlineStr">
         <is>
           <t>SEE937237973343</t>
         </is>
@@ -13195,10 +12692,8 @@
           <t>ABR955382300142</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>5.3.2015</t>
-        </is>
+      <c r="D261" s="1" t="n">
+        <v>42068</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -13208,7 +12703,7 @@
           <t>Bereiteranger 23, 81541 München</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
+      <c r="G261" s="2" t="inlineStr">
         <is>
           <t>SEE996530607195</t>
         </is>
@@ -13244,10 +12739,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>25.2.2016</t>
-        </is>
+      <c r="D262" s="1" t="n">
+        <v>42425</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -13257,7 +12750,7 @@
           <t>Filchnerstraße 86, 81476 München</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
+      <c r="G262" s="2" t="inlineStr">
         <is>
           <t>SEE913719058258</t>
         </is>
@@ -13293,10 +12786,8 @@
           <t>Modul 1</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>15.3.2001</t>
-        </is>
+      <c r="D263" s="1" t="n">
+        <v>36965</v>
       </c>
       <c r="E263" t="n">
         <v>24</v>
@@ -13306,7 +12797,7 @@
           <t>Birkenallee 1, 86356 Neusäß</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
+      <c r="G263" s="2" t="inlineStr">
         <is>
           <t>SEE968937758770</t>
         </is>
@@ -13342,10 +12833,8 @@
           <t>Modul 2</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>15.3.2001</t>
-        </is>
+      <c r="D264" s="1" t="n">
+        <v>36965</v>
       </c>
       <c r="E264" t="n">
         <v>24</v>
@@ -13355,7 +12844,7 @@
           <t>Birkenallee 1, 86356 Neusäß</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
+      <c r="G264" s="2" t="inlineStr">
         <is>
           <t>SEE975848761355</t>
         </is>
@@ -13391,10 +12880,8 @@
           <t>BHKW Rob. Holtzapfel</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>21.12.2011</t>
-        </is>
+      <c r="D265" s="1" t="n">
+        <v>40898</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -13404,7 +12891,7 @@
           <t>Rohrbacher Straße 30, 96271 Grub a. Forst</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
+      <c r="G265" s="2" t="inlineStr">
         <is>
           <t>SEE961061705757</t>
         </is>
@@ -13440,10 +12927,8 @@
           <t>BHKW Berufsschule Lindau (Bodensee)</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>27.11.2012</t>
-        </is>
+      <c r="D266" s="1" t="n">
+        <v>41240</v>
       </c>
       <c r="E266" t="n">
         <v>12</v>
@@ -13453,7 +12938,7 @@
           <t>Reutiner Straße 10, 88131 Lindau</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
+      <c r="G266" s="2" t="inlineStr">
         <is>
           <t>SEE985224131184</t>
         </is>
@@ -13489,10 +12974,8 @@
           <t>BHKW Gebäude H el: 114kW th: 191kW</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>7.4.2003</t>
-        </is>
+      <c r="D267" s="1" t="n">
+        <v>37718</v>
       </c>
       <c r="E267" t="n">
         <v>21</v>
@@ -13502,7 +12985,7 @@
           <t>Bahnhofstraße 61, 87435 Kempten</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
+      <c r="G267" s="2" t="inlineStr">
         <is>
           <t>SEE948826269419</t>
         </is>
@@ -13538,10 +13021,8 @@
           <t>BHKW  JVA Memmingen</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>1.4.2016</t>
-        </is>
+      <c r="D268" s="1" t="n">
+        <v>42461</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -13551,7 +13032,7 @@
           <t>Gaswerkstraße 23, 87700 Memmingen</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
+      <c r="G268" s="2" t="inlineStr">
         <is>
           <t>SEE958093020033</t>
         </is>
@@ -13587,10 +13068,8 @@
           <t>BHKW</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>2.4.2014</t>
-        </is>
+      <c r="D269" s="1" t="n">
+        <v>41731</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -13600,7 +13079,7 @@
           <t>Hofen 18, 87544 Blaichach</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
+      <c r="G269" s="2" t="inlineStr">
         <is>
           <t>SEE911854019967</t>
         </is>
@@ -13636,10 +13115,8 @@
           <t>BHKW FCM</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>28.4.2004</t>
-        </is>
+      <c r="D270" s="1" t="n">
+        <v>38105</v>
       </c>
       <c r="E270" t="n">
         <v>20</v>
@@ -13649,7 +13126,7 @@
           <t>Stockach 1, 88167 Maierhöfen</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
+      <c r="G270" s="2" t="inlineStr">
         <is>
           <t>SEE994708620427</t>
         </is>
@@ -13685,10 +13162,8 @@
           <t>Luitpold</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>11.10.2012</t>
-        </is>
+      <c r="D271" s="1" t="n">
+        <v>41193</v>
       </c>
       <c r="E271" t="n">
         <v>12</v>
@@ -13698,7 +13173,7 @@
           <t>Bahnhofstraße 1, 87629 Füssen</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
+      <c r="G271" s="2" t="inlineStr">
         <is>
           <t>SEE988601604004</t>
         </is>
@@ -13734,10 +13209,8 @@
           <t>Wohlfühl-Therme BHKW</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>11.5.2012</t>
-        </is>
+      <c r="D272" s="1" t="n">
+        <v>41040</v>
       </c>
       <c r="E272" t="n">
         <v>12</v>
@@ -13747,7 +13220,7 @@
           <t>Thermalbadstraße 4, 94086 Bad Griesbach</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
+      <c r="G272" s="2" t="inlineStr">
         <is>
           <t>SEE923584947113</t>
         </is>
@@ -13783,10 +13256,8 @@
           <t>BHKW-Anlage WEG Bahnhofstr. 5-11</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>7.5.2019</t>
-        </is>
+      <c r="D273" s="1" t="n">
+        <v>43592</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -13796,7 +13267,7 @@
           <t>Bahnhofstraße 11, 86368 Gersthofen</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
+      <c r="G273" s="2" t="inlineStr">
         <is>
           <t>SEE960663630405</t>
         </is>
@@ -13832,10 +13303,8 @@
           <t>BHKW Vitobloc 200</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>11.7.2012</t>
-        </is>
+      <c r="D274" s="1" t="n">
+        <v>41101</v>
       </c>
       <c r="E274" t="n">
         <v>12</v>
@@ -13845,7 +13314,7 @@
           <t>Kemptener Straße 17, 88178 Heimenkirch</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
+      <c r="G274" s="2" t="inlineStr">
         <is>
           <t>SEE909286721039</t>
         </is>
@@ -13881,10 +13350,8 @@
           <t>BMW München - KWK Dostlerstrasse</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>29.7.2016</t>
-        </is>
+      <c r="D275" s="1" t="n">
+        <v>42580</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -13894,7 +13361,7 @@
           <t>Dostlerstraße 3, 80809 München</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
+      <c r="G275" s="2" t="inlineStr">
         <is>
           <t>SEE990413077372</t>
         </is>
@@ -13930,10 +13397,8 @@
           <t>BHKW Anlage</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>21.8.2019</t>
-        </is>
+      <c r="D276" s="1" t="n">
+        <v>43698</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -13943,7 +13408,7 @@
           <t>Stahlgruberring 45, 81829 München</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
+      <c r="G276" s="2" t="inlineStr">
         <is>
           <t>SEE903198361918</t>
         </is>
@@ -13966,6 +13431,283 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" display="SEE912037755702" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" display="SEE945091856061" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" display="SEE945128513080" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" display="SEE961053147558" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" display="SEE999514598113" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" display="SEE922558915097" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" display="SEE904057425536" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" display="SEE994066938325" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" display="SEE937456251871" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" display="SEE975592614723" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" display="SEE948146485544" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" display="SEE957111624000" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" display="SEE944687854320" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" display="SEE987867126145" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G16" display="SEE991565388750" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G17" display="SEE955340606156" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G18" display="SEE967888931980" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G19" display="SEE935270575876" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G20" display="SEE937852053758" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G21" display="SEE984143858837" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G22" display="SEE971140307642" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G23" display="SEE943315865240" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G24" display="SEE926257440362" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G25" display="SEE971115325121" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G26" display="SEE966379054566" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G27" display="SEE947828860877" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G28" display="SEE917932142534" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G29" display="SEE945774154606" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" display="SEE933171247243" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" display="SEE933748072476" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" display="SEE929656463321" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" display="SEE912161292616" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" display="SEE938622884732" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" display="SEE918785216892" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" display="SEE971121402175" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" display="SEE924941604144" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G38" display="SEE903242925158" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G39" display="SEE963632178786" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G40" display="SEE995252619585" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G41" display="SEE923674370890" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G42" display="SEE903710917302" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G43" display="SEE917849832443" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G44" display="SEE914234735563" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G45" display="SEE959198660490" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G46" display="SEE998412529182" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G47" display="SEE959942294162" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G48" display="SEE994485603644" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G49" display="SEE996571738667" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G50" display="SEE906081693318" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G51" display="SEE933747445004" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G52" display="SEE941306278802" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G53" display="SEE988627886507" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G54" display="SEE914387141075" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G55" display="SEE998473915610" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G56" display="SEE945427188798" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G57" display="SEE990256593312" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G58" display="SEE918254135433" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G59" display="SEE928935079277" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G60" display="SEE973851742804" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G61" display="SEE907691649795" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G62" display="SEE936363415543" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G63" display="SEE920058632582" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G64" display="SEE930700119200" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G65" display="SEE989282814294" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G66" display="SEE957582721376" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G67" display="SEE969830043512" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G68" display="SEE918743115106" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G69" display="SEE920723976881" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G70" display="SEE946486652299" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G71" display="SEE976444810140" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G72" display="SEE921184916331" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G73" display="SEE986654204929" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G74" display="SEE957593176806" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G75" display="SEE918009532562" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G76" display="SEE999517080912" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G77" display="SEE974641464272" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G78" display="SEE958281062111" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G79" display="SEE908783623433" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G80" display="SEE977889207304" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G81" display="SEE911951261344" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G82" display="SEE955489876007" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G83" display="SEE957405222073" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G84" display="SEE910245880766" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G85" display="SEE980912210554" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G86" display="SEE995745997251" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G87" display="SEE985290556379" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G88" display="SEE979175435422" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G89" display="SEE964999005777" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G90" display="SEE993310975512" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G91" display="SEE986574571682" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G92" display="SEE961739356045" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G93" display="SEE993996813399" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G94" display="SEE946262501117" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G95" display="SEE907057207874" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G96" display="SEE987193941405" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G97" display="SEE910743803076" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G98" display="SEE979987335927" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G99" display="SEE917597644183" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G100" display="SEE999083262606" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G101" display="SEE970046784557" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G102" display="SEE926627831912" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G103" display="SEE967204326421" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G104" display="SEE914553029046" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G105" display="SEE989305388511" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G106" display="SEE991260643628" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G107" display="SEE907077863272" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G108" display="SEE906963502523" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G109" display="SEE970371498358" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G110" display="SEE977778330755" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G111" display="SEE959989898002" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G112" display="SEE921914336613" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G113" display="SEE968171443548" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G114" display="SEE953916559721" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G115" display="SEE982787098619" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G116" display="SEE947986715286" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G117" display="SEE976003509126" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G118" display="SEE956385928661" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G119" display="SEE925152295633" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G120" display="SEE932792258171" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G121" display="SEE971050961842" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G122" display="SEE959575647014" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G123" display="SEE985022045621" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G124" display="SEE967297807166" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G125" display="SEE911086953015" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G126" display="SEE901408603155" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G127" display="SEE928425121684" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G128" display="SEE992397921900" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G129" display="SEE923438144514" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G130" display="SEE961478082700" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="SEE988892845551" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G132" display="SEE914353086560" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G133" display="SEE916149528681" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G134" display="SEE997922123651" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G135" display="SEE976108561869" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G136" display="SEE926122377045" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G137" display="SEE979364102739" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G138" display="SEE928422920990" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G139" display="SEE997000113437" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G140" display="SEE936400314877" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G141" display="SEE960764569826" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G142" display="SEE956592492016" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G143" display="SEE972202066491" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G144" display="SEE990480747413" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G145" display="SEE952267109692" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G146" display="SEE955208769962" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G147" display="SEE905017608891" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G148" display="SEE978594279990" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G149" display="SEE934463022616" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G150" display="SEE953655970115" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G151" display="SEE980711004255" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G152" display="SEE950696045963" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G153" display="SEE987207338535" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G154" display="SEE978254062764" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G155" display="SEE944685544537" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G156" display="SEE903061731442" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G157" display="SEE903372175850" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G158" display="SEE909996377243" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G159" display="SEE915108776507" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G160" display="SEE923888226167" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G161" display="SEE907708479827" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G162" display="SEE922180635806" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G163" display="SEE940162973234" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G164" display="SEE920977527297" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G165" display="SEE909052129496" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G166" display="SEE926113272007" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G167" display="SEE981732999261" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G168" display="SEE956643025286" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G169" display="SEE987398818922" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G170" display="SEE957375200446" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G171" display="SEE950343004831" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G172" display="SEE908794413870" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G173" display="SEE980795700555" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G174" display="SEE913271982459" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G175" display="SEE924559749503" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G176" display="SEE928721656088" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G177" display="SEE956736486192" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G178" display="SEE997522763615" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G179" display="SEE987882045407" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G180" display="SEE971131988812" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G181" display="SEE984743450943" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G182" display="SEE989970000978" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G183" display="SEE901323460369" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G184" display="SEE944748502337" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G185" display="SEE974306013593" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G186" display="SEE927397183270" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G187" display="SEE917508501253" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G188" display="SEE962322791380" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G189" display="SEE929779792186" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G190" display="SEE936250696680" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G191" display="SEE943660680550" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G192" display="SEE930547192824" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G193" display="SEE914012198245" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G194" display="SEE920061761521" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G195" display="SEE949951491669" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G196" display="SEE961802680282" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G197" display="SEE903656311578" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G198" display="SEE928873702688" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G199" display="SEE947018897485" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G200" display="SEE912165160775" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G201" display="SEE908417462261" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G202" display="SEE916580935970" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G203" display="SEE995639882588" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G204" display="SEE989609660016" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G205" display="SEE900971100085" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G206" display="SEE967871426349" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G207" display="SEE956092187900" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G208" display="SEE995962832953" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G209" display="SEE977367089408" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G210" display="SEE949418732779" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G211" display="SEE952457396826" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G212" display="SEE926421476791" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G213" display="SEE968900013936" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G214" display="SEE974454092082" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G215" display="SEE979144032256" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G216" display="SEE948296351898" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G217" display="SEE932299337645" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G218" display="SEE913437990564" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G219" display="SEE938919224272" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G220" display="SEE983437840190" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G221" display="SEE956343396983" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G222" display="SEE948236036809" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G223" display="SEE931996376827" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G224" display="SEE933738955819" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G225" display="SEE930910068725" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G226" display="SEE979929079537" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G227" display="SEE930972727028" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G228" display="SEE907882630137" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G229" display="SEE993181216561" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G230" display="SEE956653412663" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G231" display="SEE966376325836" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G232" display="SEE979912872350" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G233" display="SEE939751782821" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G234" display="SEE988566864611" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G235" display="SEE952311863952" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G236" display="SEE937123884944" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G237" display="SEE904259920198" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G238" display="SEE981990775096" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G239" display="SEE963530951221" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G240" display="SEE917689644183" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G241" display="SEE965261746503" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G242" display="SEE972981462705" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G243" display="SEE935978115725" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G244" display="SEE924999391669" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G245" display="SEE959366752705" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G246" display="SEE934803451236" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G247" display="SEE974621801608" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G248" display="SEE951065359254" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G249" display="SEE980449546393" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G250" display="SEE988922295738" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G251" display="SEE956274569555" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G252" display="SEE989013880802" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G253" display="SEE952596110611" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G254" display="SEE990602300380" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G255" display="SEE972445797428" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G256" display="SEE929697504311" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G257" display="SEE911077343122" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G258" display="SEE947823335950" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G259" display="SEE941230334018" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G260" display="SEE937237973343" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G261" display="SEE996530607195" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G262" display="SEE913719058258" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G263" display="SEE968937758770" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G264" display="SEE975848761355" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G265" display="SEE961061705757" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G266" display="SEE985224131184" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G267" display="SEE948826269419" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G268" display="SEE958093020033" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G269" display="SEE911854019967" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G270" display="SEE994708620427" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" display="SEE988601604004" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" display="SEE923584947113" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G273" display="SEE960663630405" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G274" display="SEE909286721039" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G275" display="SEE990413077372" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G276" display="SEE903198361918" r:id="rId275"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>